--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,7 +597,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -679,14 +679,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -707,13 +707,13 @@
         <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S3" t="n">
         <v>1</v>
@@ -761,11 +761,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
@@ -774,7 +774,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q4" t="n">
         <v>2</v>
@@ -843,7 +843,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -925,7 +925,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1064,78 +1064,78 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Jacob Crews</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
         <v>5</v>
       </c>
-      <c r="K8" t="n">
-        <v>6</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>4</v>
-      </c>
-      <c r="P8" t="n">
-        <v>37</v>
-      </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R8" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1151,40 +1151,40 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I9" t="n">
         <v>21</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -1193,31 +1193,31 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P9" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="R9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -1238,68 +1238,68 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 3:30 PM EST</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1310,22 +1310,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1335,14 +1335,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 3:30 PM EST</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>1</v>
@@ -1366,22 +1366,22 @@
         <v>6</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
         <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1397,67 +1397,67 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
         <v>11</v>
       </c>
-      <c r="I12" t="n">
-        <v>9</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>23</v>
-      </c>
       <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
         <v>4</v>
       </c>
-      <c r="R12" t="n">
-        <v>9</v>
-      </c>
       <c r="S12" t="n">
         <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1484,62 +1484,62 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 3:30 PM EST</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1556,78 +1556,78 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>19</v>
+        <v>-1</v>
       </c>
       <c r="I14" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1648,56 +1648,56 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 3:30 PM EST</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q15" t="n">
         <v>6</v>
       </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
       <c r="R15" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1725,12 +1725,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1745,11 +1745,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 3:30 PM EST</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1812,35 +1812,35 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
         <v>1</v>
       </c>
       <c r="I17" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1855,22 +1855,22 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
         <v>2</v>
@@ -1894,32 +1894,32 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1937,25 +1937,25 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1966,17 +1966,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1991,47 +1991,47 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2058,62 +2058,62 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I20" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2135,40 +2135,40 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -2177,19 +2177,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="Q21" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2198,10 +2198,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2222,57 +2222,57 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H22" t="n">
+        <v>20</v>
+      </c>
+      <c r="I22" t="n">
+        <v>21</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
         <v>4</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
       <c r="P22" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>9</v>
+      </c>
+      <c r="R22" t="n">
         <v>13</v>
       </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
@@ -2280,10 +2280,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2319,53 +2319,53 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2376,17 +2376,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2401,29 +2401,29 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
         <v>1</v>
@@ -2435,19 +2435,19 @@
         <v>4</v>
       </c>
       <c r="R24" t="n">
+        <v>9</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="n">
         <v>7</v>
       </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1</v>
-      </c>
       <c r="U24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2468,68 +2468,68 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I25" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J25" t="n">
+        <v>8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
         <v>4</v>
       </c>
-      <c r="K25" t="n">
-        <v>2</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>3</v>
-      </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="Q25" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26">
@@ -2545,73 +2545,73 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>8</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="n">
         <v>4</v>
       </c>
-      <c r="P26" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>11</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3</v>
-      </c>
       <c r="U26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2632,38 +2632,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -2672,28 +2672,28 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P27" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q27" t="n">
         <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
+        <v>3</v>
+      </c>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
         <v>6</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2729,53 +2729,53 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P28" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S28" t="n">
         <v>2</v>
       </c>
       <c r="T28" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2796,62 +2796,62 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J29" t="n">
         <v>2</v>
       </c>
       <c r="K29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P29" t="n">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2878,35 +2878,35 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 3:30 PM EST</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P30" t="n">
         <v>7</v>
       </c>
       <c r="Q30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2950,78 +2950,78 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3042,68 +3042,68 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="I32" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J32" t="n">
+        <v>15</v>
+      </c>
+      <c r="K32" t="n">
+        <v>7</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>3</v>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>10</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2</v>
+      </c>
+      <c r="T32" t="n">
+        <v>4</v>
+      </c>
+      <c r="U32" t="n">
         <v>6</v>
       </c>
-      <c r="K32" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>3</v>
-      </c>
-      <c r="P32" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
-      <c r="R32" t="n">
-        <v>11</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2</v>
-      </c>
       <c r="V32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -3124,68 +3124,68 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>-2</v>
+        <v>12</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N33" t="n">
         <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P33" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34">
@@ -3201,73 +3201,73 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
         <v>3</v>
       </c>
       <c r="P34" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Q34" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="S34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
@@ -3288,68 +3288,68 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P35" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="Q35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T35" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3370,68 +3370,68 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 3:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H36" t="n">
+        <v>10</v>
+      </c>
+      <c r="I36" t="n">
+        <v>13</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>10</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="n">
         <v>8</v>
       </c>
-      <c r="I36" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2</v>
-      </c>
-      <c r="T36" t="n">
-        <v>2</v>
-      </c>
       <c r="U36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3452,68 +3452,68 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I37" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J37" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="Q37" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -3534,68 +3534,68 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I38" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J38" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="K38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N38" t="n">
         <v>1</v>
       </c>
       <c r="O38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P38" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="Q38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R38" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -3616,68 +3616,68 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="I39" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>1</v>
       </c>
       <c r="O39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P39" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>8</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="n">
         <v>6</v>
       </c>
-      <c r="R39" t="n">
-        <v>10</v>
-      </c>
-      <c r="S39" t="n">
-        <v>3</v>
-      </c>
-      <c r="T39" t="n">
-        <v>4</v>
-      </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -3698,41 +3698,41 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
         <v>14</v>
       </c>
       <c r="I40" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
         <v>1</v>
@@ -3741,25 +3741,25 @@
         <v>2</v>
       </c>
       <c r="P40" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R40" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3795,53 +3795,53 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I41" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
         <v>1</v>
       </c>
       <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
         <v>4</v>
       </c>
-      <c r="P41" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
-      <c r="R41" t="n">
-        <v>6</v>
-      </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3877,53 +3877,53 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I42" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O42" t="n">
         <v>2</v>
       </c>
       <c r="P42" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="Q42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R42" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
@@ -3944,68 +3944,68 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I43" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>4</v>
+      </c>
+      <c r="P43" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
         <v>6</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>8</v>
-      </c>
       <c r="S43" t="n">
         <v>3</v>
       </c>
       <c r="T43" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4026,12 +4026,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4041,53 +4041,53 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I44" t="n">
+        <v>14</v>
+      </c>
+      <c r="J44" t="n">
+        <v>3</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>9</v>
+      </c>
+      <c r="S44" t="n">
+        <v>3</v>
+      </c>
+      <c r="T44" t="n">
+        <v>5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
         <v>6</v>
-      </c>
-      <c r="J44" t="n">
-        <v>5</v>
-      </c>
-      <c r="K44" t="n">
-        <v>3</v>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" t="n">
-        <v>4</v>
-      </c>
-      <c r="P44" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>3</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4123,47 +4123,47 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I45" t="n">
+        <v>10</v>
+      </c>
+      <c r="J45" t="n">
+        <v>2</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>2</v>
+      </c>
+      <c r="P45" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
         <v>7</v>
       </c>
-      <c r="J45" t="n">
-        <v>2</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>2</v>
-      </c>
-      <c r="P45" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>3</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
       <c r="S45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4190,62 +4190,62 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 3:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
+        <v>12</v>
+      </c>
+      <c r="I46" t="n">
         <v>11</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
+        <v>6</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
         <v>8</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1</v>
-      </c>
-      <c r="P46" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2</v>
-      </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U46" t="n">
         <v>2</v>
@@ -4272,35 +4272,35 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I47" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
@@ -4309,31 +4309,31 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P47" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Q47" t="n">
         <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -4518,35 +4518,35 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J50" t="n">
         <v>1</v>
       </c>
       <c r="K50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>1</v>
@@ -4561,19 +4561,19 @@
         <v>1</v>
       </c>
       <c r="P50" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U50" t="n">
         <v>2</v>
@@ -4600,47 +4600,47 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P51" t="n">
         <v>14</v>
@@ -4658,10 +4658,10 @@
         <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -4682,35 +4682,35 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 3:30 PM EST</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H52" t="n">
         <v>8</v>
       </c>
       <c r="I52" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L52" t="n">
         <v>0</v>
@@ -4719,25 +4719,25 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U52" t="n">
         <v>0</v>
@@ -4764,38 +4764,38 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -4807,25 +4807,25 @@
         <v>2</v>
       </c>
       <c r="P53" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -4846,12 +4846,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -4861,23 +4861,23 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -4886,28 +4886,28 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -4928,62 +4928,62 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
+        <v>6</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="n">
         <v>5</v>
       </c>
-      <c r="I55" t="n">
-        <v>4</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>1</v>
-      </c>
-      <c r="P55" t="n">
-        <v>15</v>
-      </c>
       <c r="Q55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
         <v>0</v>
@@ -5010,38 +5010,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>5</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
         <v>3</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -5053,25 +5053,25 @@
         <v>1</v>
       </c>
       <c r="P56" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5092,68 +5092,68 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J57" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K57" t="n">
         <v>1</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
         <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5189,17 +5189,17 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 3:30 PM EST</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" t="n">
         <v>0</v>
@@ -5214,22 +5214,22 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="n">
         <v>1</v>
       </c>
       <c r="R58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -5256,12 +5256,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -5271,53 +5271,53 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q59" t="n">
         <v>2</v>
       </c>
       <c r="R59" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T59" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60">
@@ -5338,32 +5338,32 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H60" t="n">
         <v>2</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K60" t="n">
         <v>0</v>
@@ -5378,16 +5378,16 @@
         <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -5420,41 +5420,41 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H61" t="n">
         <v>2</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>2</v>
@@ -5463,13 +5463,13 @@
         <v>2</v>
       </c>
       <c r="P61" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
@@ -5478,10 +5478,10 @@
         <v>1</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -5502,22 +5502,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -5527,25 +5527,25 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -5584,22 +5584,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 3:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -5609,37 +5609,37 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U63" t="n">
         <v>0</v>
@@ -5666,35 +5666,35 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
@@ -5703,19 +5703,19 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
@@ -5748,22 +5748,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>14:33 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -5830,35 +5830,35 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 3:30 PM EST</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>1</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>1</v>
       </c>
       <c r="K66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>0</v>
@@ -5867,25 +5867,25 @@
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
       </c>
       <c r="P66" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -5912,68 +5912,68 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>6:27 - 2nd Half</t>
         </is>
       </c>
       <c r="H67" t="n">
         <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O67" t="n">
         <v>1</v>
       </c>
       <c r="P67" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
       </c>
       <c r="R67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
       </c>
       <c r="T67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -5994,32 +5994,32 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Kai Rogers</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>15:26 - 1st Half</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -6076,32 +6076,32 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 3:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -6116,28 +6116,28 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -6173,20 +6173,20 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 3:30 PM EST</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -6195,31 +6195,31 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
         <v>4</v>
       </c>
-      <c r="Q70" t="n">
-        <v>0</v>
-      </c>
-      <c r="R70" t="n">
-        <v>0</v>
-      </c>
       <c r="S70" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -6240,68 +6240,68 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>18:40 - 2nd Half</t>
+          <t>12:47 - 1st Half</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -6322,67 +6322,231 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Kai Rogers</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>TEX@OU</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>6:27 - 2nd Half</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0</v>
+      </c>
+      <c r="S72" t="n">
+        <v>0</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>0</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
           <t>MSST@MIZ</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Sat, January 31st at 3:30 PM EST</t>
-        </is>
-      </c>
-      <c r="H72" t="n">
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>12:47 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
+      </c>
+      <c r="P73" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
+      </c>
+      <c r="S73" t="n">
+        <v>0</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Justin Bailey</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>TA&amp;M@UGA</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
         <v>-1</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>1</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
+      <c r="I74" t="n">
+        <v>2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>1</v>
+      </c>
+      <c r="O74" t="n">
         <v>4</v>
       </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="n">
-        <v>0</v>
-      </c>
-      <c r="S72" t="n">
-        <v>0</v>
-      </c>
-      <c r="T72" t="n">
-        <v>0</v>
-      </c>
-      <c r="U72" t="n">
-        <v>0</v>
-      </c>
-      <c r="V72" t="n">
+      <c r="P74" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6434,7 +6598,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -6447,7 +6611,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -6460,7 +6624,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
@@ -6499,7 +6663,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="17" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -597,17 +597,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>17</v>
+      </c>
+      <c r="I2" t="n">
         <v>14</v>
       </c>
-      <c r="I2" t="n">
-        <v>12</v>
-      </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
@@ -628,10 +628,10 @@
         <v>24</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -707,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="n">
         <v>5</v>
@@ -761,7 +761,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1114,22 +1114,22 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1253,11 +1253,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" t="n">
         <v>23</v>
@@ -1281,19 +1281,19 @@
         <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q10" t="n">
         <v>9</v>
       </c>
       <c r="R10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S10" t="n">
         <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -1335,14 +1335,14 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
         <v>8</v>
       </c>
       <c r="I11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1357,25 +1357,25 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" t="n">
         <v>6</v>
       </c>
-      <c r="Q11" t="n">
-        <v>3</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
       <c r="S11" t="n">
         <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>
@@ -1417,17 +1417,17 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
@@ -1445,13 +1445,13 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1499,11 +1499,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I13" t="n">
         <v>9</v>
@@ -1515,7 +1515,7 @@
         <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q13" t="n">
         <v>4</v>
@@ -1581,35 +1581,35 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1745,20 +1745,20 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1773,25 +1773,25 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1827,14 +1827,14 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
         <v>1</v>
@@ -1843,7 +1843,7 @@
         <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1870,10 +1870,10 @@
         <v>2</v>
       </c>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1991,7 +1991,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -2073,11 +2073,11 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
         <v>15</v>
@@ -2101,19 +2101,19 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q20" t="n">
         <v>6</v>
       </c>
       <c r="R20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S20" t="n">
         <v>3</v>
       </c>
       <c r="T20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2304,12 +2304,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2319,53 +2319,53 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
+        <v>6</v>
+      </c>
+      <c r="I23" t="n">
+        <v>12</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q23" t="n">
         <v>4</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2386,12 +2386,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2401,53 +2401,53 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P24" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -2493,7 +2493,7 @@
         <v>18</v>
       </c>
       <c r="J25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K25" t="n">
         <v>6</v>
@@ -2505,16 +2505,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
         <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
         <v>9</v>
@@ -2526,10 +2526,10 @@
         <v>1</v>
       </c>
       <c r="U25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V25" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -2975,23 +2975,23 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>1</v>
       </c>
       <c r="P31" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
         <v>8</v>
       </c>
-      <c r="Q31" t="n">
-        <v>1</v>
-      </c>
-      <c r="R31" t="n">
-        <v>3</v>
-      </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3221,17 +3221,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>1</v>
       </c>
       <c r="O34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P34" t="n">
         <v>24</v>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -3477,7 +3477,7 @@
         <v>8</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3489,13 +3489,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P37" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q37" t="n">
         <v>2</v>
@@ -3698,68 +3698,68 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="n">
+        <v>12</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
         <v>15</v>
       </c>
-      <c r="J40" t="n">
-        <v>2</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>2</v>
-      </c>
-      <c r="P40" t="n">
-        <v>19</v>
-      </c>
       <c r="Q40" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T40" t="n">
+        <v>3</v>
+      </c>
+      <c r="U40" t="n">
         <v>4</v>
       </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -3780,35 +3780,35 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
         <v>14</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>1</v>
@@ -3820,28 +3820,28 @@
         <v>1</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P41" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R41" t="n">
+        <v>10</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="n">
         <v>4</v>
       </c>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2</v>
-      </c>
       <c r="U41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3862,56 +3862,56 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H42" t="n">
         <v>14</v>
       </c>
       <c r="I42" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K42" t="n">
         <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
         <v>1</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
         <v>23</v>
       </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R42" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="S42" t="n">
         <v>1</v>
@@ -3923,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -3944,38 +3944,38 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -3984,28 +3984,28 @@
         <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q43" t="n">
         <v>5</v>
       </c>
       <c r="R43" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -4026,35 +4026,35 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>13</v>
       </c>
       <c r="I44" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4063,31 +4063,31 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P44" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S44" t="n">
         <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4108,41 +4108,41 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>13</v>
       </c>
       <c r="I45" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -4151,25 +4151,25 @@
         <v>2</v>
       </c>
       <c r="P45" t="n">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="Q45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R45" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
@@ -4190,17 +4190,17 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -4209,49 +4209,49 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P46" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4272,35 +4272,35 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H47" t="n">
         <v>12</v>
       </c>
       <c r="I47" t="n">
+        <v>11</v>
+      </c>
+      <c r="J47" t="n">
         <v>6</v>
       </c>
-      <c r="J47" t="n">
-        <v>5</v>
-      </c>
       <c r="K47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
@@ -4312,28 +4312,28 @@
         <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q47" t="n">
         <v>3</v>
       </c>
       <c r="R47" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T47" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -4354,68 +4354,68 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I48" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J48" t="n">
+        <v>5</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
         <v>4</v>
       </c>
-      <c r="K48" t="n">
-        <v>3</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>3</v>
-      </c>
-      <c r="O48" t="n">
-        <v>3</v>
-      </c>
       <c r="P48" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4458,46 +4458,46 @@
         <v>10</v>
       </c>
       <c r="I49" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O49" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P49" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
         <v>6</v>
       </c>
-      <c r="R49" t="n">
-        <v>14</v>
-      </c>
       <c r="S49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50">
@@ -4518,68 +4518,68 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
         <v>10</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P50" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R50" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S50" t="n">
         <v>2</v>
       </c>
       <c r="T50" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -4640,10 +4640,10 @@
         <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q51" t="n">
         <v>1</v>
@@ -4764,38 +4764,38 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -4807,25 +4807,25 @@
         <v>2</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Q53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -4846,68 +4846,68 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H54" t="n">
         <v>7</v>
       </c>
       <c r="I54" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>2</v>
+      </c>
+      <c r="T54" t="n">
         <v>4</v>
       </c>
-      <c r="L54" t="n">
-        <v>2</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>2</v>
-      </c>
-      <c r="P54" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>0</v>
-      </c>
-      <c r="R54" t="n">
-        <v>2</v>
-      </c>
-      <c r="S54" t="n">
-        <v>0</v>
-      </c>
-      <c r="T54" t="n">
-        <v>1</v>
-      </c>
       <c r="U54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -5010,62 +5010,62 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L56" t="n">
         <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P56" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -5092,38 +5092,38 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H57" t="n">
         <v>5</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J57" t="n">
         <v>3</v>
       </c>
       <c r="K57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -5135,25 +5135,25 @@
         <v>1</v>
       </c>
       <c r="P57" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -5174,38 +5174,38 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
         <v>0</v>
@@ -5214,28 +5214,28 @@
         <v>0</v>
       </c>
       <c r="O58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59">
@@ -5256,68 +5256,68 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J59" t="n">
         <v>1</v>
       </c>
       <c r="K59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="Q59" t="n">
         <v>2</v>
       </c>
       <c r="R59" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T59" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -5338,68 +5338,68 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J60" t="n">
         <v>1</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P60" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="Q60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R60" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -5420,68 +5420,68 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -5502,29 +5502,29 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J62" t="n">
         <v>2</v>
@@ -5539,25 +5539,25 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
@@ -5584,41 +5584,41 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H63" t="n">
         <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>2</v>
@@ -5627,13 +5627,13 @@
         <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -5642,10 +5642,10 @@
         <v>1</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -5666,12 +5666,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -5691,25 +5691,25 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -5727,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65">
@@ -5748,12 +5748,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -5767,13 +5767,13 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
@@ -5791,7 +5791,7 @@
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -5830,62 +5830,62 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P66" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
       </c>
       <c r="R66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S66" t="n">
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -5927,11 +5927,11 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5946,7 +5946,7 @@
         <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
         <v>2</v>
@@ -5955,7 +5955,7 @@
         <v>1</v>
       </c>
       <c r="P67" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -5994,22 +5994,22 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -6037,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="P68" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -6076,32 +6076,32 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H69" t="n">
         <v>1</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K69" t="n">
         <v>0</v>
@@ -6116,28 +6116,28 @@
         <v>0</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P69" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
       </c>
       <c r="R69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S69" t="n">
         <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -6158,35 +6158,35 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L70" t="n">
         <v>0</v>
@@ -6195,31 +6195,31 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -6240,12 +6240,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Annor Boateng</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -6255,7 +6255,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -6265,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -6277,13 +6277,13 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O71" t="n">
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -6301,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>6:27 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>12:47 - 1st Half</t>
+          <t>4:14 - 1st Half</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -6486,67 +6486,231 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>Trent Burns</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>MSST@MIZ</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>4:14 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0</v>
+      </c>
+      <c r="S74" t="n">
+        <v>0</v>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>MSST@MIZ</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>4:14 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>1</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
+      </c>
+      <c r="P75" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>0</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>Justin Bailey</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>UGA</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>TA&amp;M@UGA</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H74" t="n">
+      <c r="H76" t="n">
         <v>-1</v>
       </c>
-      <c r="I74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>1</v>
-      </c>
-      <c r="O74" t="n">
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="n">
         <v>4</v>
       </c>
-      <c r="P74" t="n">
+      <c r="P76" t="n">
         <v>9</v>
       </c>
-      <c r="Q74" t="n">
-        <v>1</v>
-      </c>
-      <c r="R74" t="n">
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
         <v>4</v>
       </c>
-      <c r="S74" t="n">
-        <v>0</v>
-      </c>
-      <c r="T74" t="n">
-        <v>1</v>
-      </c>
-      <c r="U74" t="n">
-        <v>0</v>
-      </c>
-      <c r="V74" t="n">
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6598,7 +6762,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
@@ -6611,7 +6775,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C3" t="n">
         <v>3</v>
@@ -6633,27 +6797,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -6663,7 +6827,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -6676,7 +6840,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1238,62 +1238,62 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>8</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="n">
         <v>4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>9</v>
-      </c>
-      <c r="R10" t="n">
-        <v>22</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>8</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -1320,62 +1320,62 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H11" t="n">
+        <v>13</v>
+      </c>
+      <c r="I11" t="n">
+        <v>23</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9</v>
+      </c>
+      <c r="R11" t="n">
+        <v>22</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="n">
         <v>8</v>
-      </c>
-      <c r="I11" t="n">
-        <v>11</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>6</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>
@@ -1417,20 +1417,20 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1445,13 +1445,13 @@
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q12" t="n">
         <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1460,10 +1460,10 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1758,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
       </c>
       <c r="R16" t="n">
+        <v>6</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1</v>
+      </c>
+      <c r="T16" t="n">
         <v>5</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1</v>
-      </c>
-      <c r="T16" t="n">
-        <v>4</v>
       </c>
       <c r="U16" t="n">
         <v>2</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q17" t="n">
         <v>1</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2975,11 +2975,11 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-2</v>
+        <v>-4</v>
       </c>
       <c r="I31" t="n">
         <v>2</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
         <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3467,7 +3467,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -3492,10 +3492,10 @@
         <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P37" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q37" t="n">
         <v>2</v>
@@ -3713,17 +3713,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I40" t="n">
         <v>12</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K40" t="n">
         <v>2</v>
@@ -3741,7 +3741,7 @@
         <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Q40" t="n">
         <v>3</v>
@@ -4436,68 +4436,68 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I49" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
+        <v>6</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
         <v>4</v>
       </c>
-      <c r="K49" t="n">
-        <v>3</v>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>3</v>
-      </c>
-      <c r="O49" t="n">
-        <v>3</v>
-      </c>
-      <c r="P49" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2</v>
-      </c>
-      <c r="R49" t="n">
-        <v>6</v>
-      </c>
       <c r="S49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V49" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4518,12 +4518,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -4540,46 +4540,46 @@
         <v>10</v>
       </c>
       <c r="I50" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P50" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
         <v>6</v>
       </c>
-      <c r="R50" t="n">
-        <v>14</v>
-      </c>
       <c r="S50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51">
@@ -4600,17 +4600,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4619,49 +4619,49 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I51" t="n">
+        <v>14</v>
+      </c>
+      <c r="J51" t="n">
         <v>5</v>
       </c>
-      <c r="J51" t="n">
-        <v>1</v>
-      </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R51" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -4682,50 +4682,50 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q52" t="n">
         <v>1</v>
@@ -4740,10 +4740,10 @@
         <v>1</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -4764,68 +4764,68 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="Q53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
         <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -4861,11 +4861,11 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I54" t="n">
         <v>8</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -4889,7 +4889,7 @@
         <v>2</v>
       </c>
       <c r="P54" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Q54" t="n">
         <v>3</v>
@@ -4928,12 +4928,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -4947,19 +4947,19 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -4968,28 +4968,28 @@
         <v>0</v>
       </c>
       <c r="O55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="Q55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56">
@@ -5010,53 +5010,53 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H56" t="n">
         <v>6</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P56" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R56" t="n">
         <v>1</v>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5271,17 +5271,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H59" t="n">
         <v>4</v>
       </c>
       <c r="I59" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K59" t="n">
         <v>0</v>
@@ -5290,22 +5290,22 @@
         <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P59" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="Q59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5517,17 +5517,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H62" t="n">
         <v>3</v>
       </c>
       <c r="I62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
@@ -5539,25 +5539,25 @@
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
         <v>2</v>
       </c>
       <c r="P62" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>2</v>
+      </c>
+      <c r="R62" t="n">
         <v>4</v>
       </c>
-      <c r="Q62" t="n">
-        <v>1</v>
-      </c>
-      <c r="R62" t="n">
-        <v>2</v>
-      </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U62" t="n">
         <v>0</v>
@@ -5584,68 +5584,68 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
         <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -5666,65 +5666,65 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P64" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" t="n">
         <v>2</v>
@@ -6255,7 +6255,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -6283,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -6365,7 +6365,7 @@
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -6419,7 +6419,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -6583,7 +6583,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>4:14 - 1st Half</t>
+          <t>0:46 - 1st Half</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="17" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1117,7 +1117,7 @@
         <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q8" t="n">
         <v>2</v>
@@ -1253,14 +1253,14 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
         <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1281,19 +1281,19 @@
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Q10" t="n">
+        <v>7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>11</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="n">
         <v>6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>8</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>4</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -1417,53 +1417,53 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>4</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
         <v>11</v>
       </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>4</v>
+      </c>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
         <v>8</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3</v>
-      </c>
-      <c r="U12" t="n">
-        <v>4</v>
-      </c>
-      <c r="V12" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1591,7 +1591,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1609,13 +1609,13 @@
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1745,17 +1745,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
         <v>5</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
@@ -1770,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="n">
         <v>1</v>
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2975,7 +2975,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -3713,41 +3713,41 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I40" t="n">
         <v>12</v>
       </c>
       <c r="J40" t="n">
+        <v>5</v>
+      </c>
+      <c r="K40" t="n">
+        <v>4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>2</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
         <v>6</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
       </c>
       <c r="S40" t="n">
         <v>2</v>
@@ -4026,62 +4026,62 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I44" t="n">
         <v>13</v>
       </c>
       <c r="J44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P44" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q44" t="n">
         <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S44" t="n">
         <v>3</v>
       </c>
       <c r="T44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4108,35 +4108,35 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H45" t="n">
         <v>13</v>
       </c>
       <c r="I45" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4145,31 +4145,31 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P45" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q45" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R45" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="S45" t="n">
         <v>3</v>
       </c>
       <c r="T45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4190,41 +4190,41 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H46" t="n">
         <v>13</v>
       </c>
       <c r="I46" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -4233,25 +4233,25 @@
         <v>2</v>
       </c>
       <c r="P46" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="Q46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R46" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
@@ -4272,17 +4272,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -4291,49 +4291,49 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P47" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4354,35 +4354,35 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
         <v>12</v>
       </c>
       <c r="I48" t="n">
+        <v>11</v>
+      </c>
+      <c r="J48" t="n">
         <v>6</v>
       </c>
-      <c r="J48" t="n">
-        <v>5</v>
-      </c>
       <c r="K48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
@@ -4394,28 +4394,28 @@
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="Q48" t="n">
         <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S48" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -4436,22 +4436,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -4461,31 +4461,31 @@
         <v>6</v>
       </c>
       <c r="J49" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K49" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>1</v>
       </c>
       <c r="O49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P49" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Q49" t="n">
         <v>3</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -4518,68 +4518,68 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I50" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
+        <v>6</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+      <c r="P50" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
         <v>4</v>
       </c>
-      <c r="K50" t="n">
-        <v>3</v>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>3</v>
-      </c>
-      <c r="O50" t="n">
-        <v>3</v>
-      </c>
-      <c r="P50" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2</v>
-      </c>
-      <c r="R50" t="n">
-        <v>6</v>
-      </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V50" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -4600,12 +4600,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -4622,46 +4622,46 @@
         <v>10</v>
       </c>
       <c r="I51" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P51" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
         <v>6</v>
       </c>
-      <c r="R51" t="n">
-        <v>14</v>
-      </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -4682,17 +4682,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I52" t="n">
+        <v>14</v>
+      </c>
+      <c r="J52" t="n">
         <v>5</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
       <c r="K52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O52" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P52" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Q52" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R52" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T52" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4764,50 +4764,50 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q53" t="n">
         <v>1</v>
@@ -4822,10 +4822,10 @@
         <v>1</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54">
@@ -4846,62 +4846,62 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H54" t="n">
         <v>8</v>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L54" t="n">
         <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q54" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U54" t="n">
         <v>0</v>
@@ -5174,41 +5174,41 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H58" t="n">
         <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -5217,13 +5217,13 @@
         <v>1</v>
       </c>
       <c r="P58" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
       </c>
       <c r="R58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -5232,7 +5232,7 @@
         <v>0</v>
       </c>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V58" t="n">
         <v>2</v>
@@ -5256,56 +5256,56 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
       </c>
       <c r="O59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
       </c>
       <c r="R59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
         <v>2</v>
@@ -5435,14 +5435,14 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H61" t="n">
         <v>4</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J61" t="n">
         <v>2</v>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="P61" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="Q61" t="n">
         <v>1</v>
@@ -5478,10 +5478,10 @@
         <v>0</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -5584,68 +5584,68 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O63" t="n">
         <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -5666,68 +5666,68 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
         <v>2</v>
       </c>
       <c r="I64" t="n">
+        <v>0</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
+      </c>
+      <c r="P64" t="n">
         <v>5</v>
       </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" t="n">
-        <v>2</v>
-      </c>
-      <c r="O64" t="n">
-        <v>2</v>
-      </c>
-      <c r="P64" t="n">
-        <v>20</v>
-      </c>
       <c r="Q64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R64" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -5773,37 +5773,37 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P65" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
       </c>
       <c r="R65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S65" t="n">
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -5830,62 +5830,62 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
         <v>2</v>
       </c>
       <c r="P66" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -6158,32 +6158,32 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H70" t="n">
         <v>1</v>
       </c>
       <c r="I70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -6198,28 +6198,28 @@
         <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -6240,32 +6240,32 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -6277,31 +6277,31 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P71" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -6322,22 +6322,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Kai Rogers</t>
+          <t>Annor Boateng</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -6359,13 +6359,13 @@
         <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -6404,22 +6404,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Kai Rogers</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="P74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -6583,7 +6583,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0:46 - 1st Half</t>
+          <t>17:01 - 2nd Half</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -6611,7 +6611,7 @@
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="Q75" t="n">
         <v>1</v>
@@ -6801,7 +6801,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -6840,7 +6840,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
@@ -1089,17 +1089,17 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="n">
         <v>8</v>
       </c>
-      <c r="I8" t="n">
-        <v>6</v>
-      </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1111,25 +1111,25 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S8" t="n">
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1253,20 +1253,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1275,25 +1275,25 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P10" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Q10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R10" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="S10" t="n">
         <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U10" t="n">
         <v>2</v>
@@ -1417,41 +1417,41 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="I12" t="n">
+        <v>19</v>
+      </c>
+      <c r="J12" t="n">
+        <v>7</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
         <v>14</v>
-      </c>
-      <c r="J12" t="n">
-        <v>4</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>11</v>
       </c>
       <c r="S12" t="n">
         <v>1</v>
@@ -1460,10 +1460,10 @@
         <v>4</v>
       </c>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V12" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13">
@@ -1581,11 +1581,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -1603,19 +1603,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1745,14 +1745,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I16" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J16" t="n">
         <v>2</v>
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
@@ -1788,10 +1788,10 @@
         <v>5</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1827,53 +1827,53 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H17" t="n">
+        <v>6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
         <v>4</v>
       </c>
-      <c r="I17" t="n">
+      <c r="P17" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
         <v>4</v>
       </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2</v>
-      </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -2632,62 +2632,62 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H27" t="n">
+        <v>15</v>
+      </c>
+      <c r="I27" t="n">
+        <v>22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>32</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>7</v>
+      </c>
+      <c r="R27" t="n">
+        <v>20</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="n">
         <v>12</v>
-      </c>
-      <c r="I27" t="n">
-        <v>15</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>1</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>4</v>
-      </c>
-      <c r="P27" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>11</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3</v>
       </c>
       <c r="U27" t="n">
         <v>4</v>
@@ -2714,38 +2714,38 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -2754,28 +2754,28 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P28" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="Q28" t="n">
         <v>5</v>
       </c>
       <c r="R28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
+        <v>3</v>
+      </c>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
         <v>6</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2815,49 +2815,49 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q29" t="n">
         <v>5</v>
       </c>
       <c r="R29" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S29" t="n">
         <v>2</v>
       </c>
       <c r="T29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2878,17 +2878,17 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2897,43 +2897,43 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J30" t="n">
         <v>2</v>
       </c>
       <c r="K30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P30" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2960,62 +2960,62 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P31" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="Q31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3467,11 +3467,11 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I37" t="n">
         <v>8</v>
@@ -3489,13 +3489,13 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P37" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q37" t="n">
         <v>2</v>
@@ -3713,17 +3713,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I40" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K40" t="n">
         <v>4</v>
@@ -3732,34 +3732,34 @@
         <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O40" t="n">
         <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="Q40" t="n">
         <v>3</v>
       </c>
       <c r="R40" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S40" t="n">
         <v>2</v>
       </c>
       <c r="T40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U40" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="V40" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -3780,62 +3780,62 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I41" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P41" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>8</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="n">
         <v>6</v>
-      </c>
-      <c r="R41" t="n">
-        <v>10</v>
-      </c>
-      <c r="S41" t="n">
-        <v>3</v>
-      </c>
-      <c r="T41" t="n">
-        <v>4</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3862,17 +3862,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -3884,46 +3884,46 @@
         <v>14</v>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J42" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q42" t="n">
         <v>6</v>
       </c>
-      <c r="K42" t="n">
-        <v>2</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1</v>
-      </c>
-      <c r="O42" t="n">
-        <v>1</v>
-      </c>
-      <c r="P42" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
-      </c>
       <c r="R42" t="n">
+        <v>10</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="n">
         <v>4</v>
       </c>
-      <c r="S42" t="n">
-        <v>1</v>
-      </c>
-      <c r="T42" t="n">
-        <v>2</v>
-      </c>
       <c r="U42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3944,56 +3944,56 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H43" t="n">
         <v>14</v>
       </c>
       <c r="I43" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K43" t="n">
         <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
         <v>1</v>
       </c>
       <c r="O43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>23</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R43" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="S43" t="n">
         <v>1</v>
@@ -4005,7 +4005,7 @@
         <v>1</v>
       </c>
       <c r="V43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
@@ -4026,68 +4026,68 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H44" t="n">
         <v>14</v>
       </c>
       <c r="I44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
         <v>2</v>
       </c>
       <c r="P44" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Q44" t="n">
         <v>5</v>
       </c>
       <c r="R44" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -4600,68 +4600,68 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I51" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P51" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="Q51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R51" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -4682,12 +4682,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -4704,46 +4704,46 @@
         <v>10</v>
       </c>
       <c r="I52" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O52" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P52" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
         <v>6</v>
       </c>
-      <c r="R52" t="n">
-        <v>14</v>
-      </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T52" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53">
@@ -4764,17 +4764,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -4783,49 +4783,49 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I53" t="n">
+        <v>14</v>
+      </c>
+      <c r="J53" t="n">
         <v>5</v>
       </c>
-      <c r="J53" t="n">
-        <v>1</v>
-      </c>
       <c r="K53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T53" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -4846,50 +4846,50 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q54" t="n">
         <v>1</v>
@@ -4904,10 +4904,10 @@
         <v>1</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -4928,68 +4928,68 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I55" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
         <v>4</v>
       </c>
-      <c r="L55" t="n">
-        <v>2</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>2</v>
-      </c>
       <c r="P55" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q55" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
       </c>
       <c r="T55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5010,50 +5010,50 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q56" t="n">
         <v>1</v>
@@ -5062,10 +5062,10 @@
         <v>1</v>
       </c>
       <c r="S56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
         <v>0</v>
@@ -5092,38 +5092,38 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I57" t="n">
+        <v>1</v>
+      </c>
+      <c r="J57" t="n">
+        <v>3</v>
+      </c>
+      <c r="K57" t="n">
         <v>4</v>
       </c>
-      <c r="J57" t="n">
-        <v>3</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0</v>
-      </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
         <v>0</v>
@@ -5132,28 +5132,28 @@
         <v>0</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Q57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -5189,53 +5189,53 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H58" t="n">
+        <v>7</v>
+      </c>
+      <c r="I58" t="n">
+        <v>7</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>0</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
         <v>5</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>5</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="n">
-        <v>2</v>
-      </c>
-      <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1</v>
-      </c>
       <c r="P58" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
       </c>
       <c r="V58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5275,37 +5275,37 @@
         </is>
       </c>
       <c r="H59" t="n">
+        <v>6</v>
+      </c>
+      <c r="I59" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
         <v>5</v>
       </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" t="n">
-        <v>13</v>
-      </c>
       <c r="Q59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -5314,10 +5314,10 @@
         <v>0</v>
       </c>
       <c r="U59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -5338,68 +5338,68 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H60" t="n">
+        <v>6</v>
+      </c>
+      <c r="I60" t="n">
+        <v>3</v>
+      </c>
+      <c r="J60" t="n">
         <v>4</v>
       </c>
-      <c r="I60" t="n">
-        <v>8</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1</v>
-      </c>
       <c r="K60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T60" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61">
@@ -5420,32 +5420,32 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H61" t="n">
+        <v>5</v>
+      </c>
+      <c r="I61" t="n">
         <v>4</v>
       </c>
-      <c r="I61" t="n">
-        <v>3</v>
-      </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K61" t="n">
         <v>0</v>
@@ -5460,28 +5460,28 @@
         <v>0</v>
       </c>
       <c r="O61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S61" t="n">
         <v>0</v>
       </c>
       <c r="T61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5517,53 +5517,53 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J62" t="n">
         <v>1</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="Q62" t="n">
         <v>2</v>
       </c>
       <c r="R62" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63">
@@ -5584,65 +5584,65 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P63" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
       </c>
       <c r="T63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
         <v>2</v>
@@ -5666,68 +5666,68 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
         <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
       </c>
       <c r="P64" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R64" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T64" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -5748,38 +5748,38 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Annor Boateng</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
@@ -5788,13 +5788,13 @@
         <v>2</v>
       </c>
       <c r="O65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R65" t="n">
         <v>1</v>
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="T65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U65" t="n">
         <v>0</v>
@@ -5830,68 +5830,68 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H66" t="n">
         <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O66" t="n">
         <v>2</v>
       </c>
       <c r="P66" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -5912,17 +5912,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5937,25 +5937,25 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -5994,12 +5994,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -6013,43 +6013,43 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
       </c>
       <c r="R68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
@@ -6076,26 +6076,26 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -6104,22 +6104,22 @@
         <v>1</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P69" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -6158,22 +6158,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -6240,32 +6240,32 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H71" t="n">
         <v>1</v>
       </c>
       <c r="I71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K71" t="n">
         <v>0</v>
@@ -6280,28 +6280,28 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P71" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
       </c>
       <c r="R71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S71" t="n">
         <v>0</v>
       </c>
       <c r="T71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -6322,7 +6322,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -6337,11 +6337,11 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
       </c>
       <c r="P72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
       </c>
       <c r="R72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
@@ -6404,32 +6404,32 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Kai Rogers</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>13:36 - 2nd Half</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
         <v>0</v>
@@ -6447,7 +6447,7 @@
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -6486,32 +6486,32 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K74" t="n">
         <v>0</v>
@@ -6526,28 +6526,28 @@
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
@@ -6568,35 +6568,35 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Kai Rogers</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>17:01 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -6605,31 +6605,31 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O75" t="n">
         <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="Q75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
       </c>
       <c r="T75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -6801,7 +6801,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -6823,27 +6823,27 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1581,7 +1581,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -4533,7 +4533,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -4615,7 +4615,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -4943,7 +4943,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -5189,7 +5189,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -6419,7 +6419,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>13:36 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="34" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -1146,78 +1146,78 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>14:20 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="Q9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1228,7 +1228,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1238,35 +1238,35 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:20 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1275,31 +1275,31 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="Q10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1315,73 +1315,73 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H11" t="n">
+        <v>21</v>
+      </c>
+      <c r="I11" t="n">
+        <v>21</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>6</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
         <v>13</v>
       </c>
-      <c r="I11" t="n">
-        <v>23</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
+        <v>2</v>
+      </c>
+      <c r="T11" t="n">
+        <v>7</v>
+      </c>
+      <c r="U11" t="n">
         <v>9</v>
       </c>
-      <c r="R11" t="n">
-        <v>22</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>8</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2</v>
-      </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -1392,7 +1392,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1402,68 +1402,68 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, January 31st at 6:30 PM EST</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>4</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>36</v>
-      </c>
       <c r="Q12" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1484,17 +1484,17 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1503,49 +1503,49 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I13" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="J13" t="n">
+        <v>2</v>
+      </c>
+      <c r="K13" t="n">
         <v>4</v>
       </c>
-      <c r="K13" t="n">
-        <v>3</v>
-      </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
         <v>29</v>
       </c>
       <c r="Q13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R13" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1585,16 +1585,16 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -1603,25 +1603,25 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" t="n">
         <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U14" t="n">
         <v>2</v>
@@ -1638,78 +1638,78 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Sat, January 31st at 6:30 PM EST</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1720,45 +1720,45 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Denzel Aberdeen</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, January 31st at 6:30 PM EST</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1770,28 +1770,28 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S16" t="n">
         <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1802,7 +1802,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1812,68 +1812,68 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Malik Dia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:20 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="Q17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
@@ -1884,78 +1884,78 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I18" t="n">
+        <v>19</v>
+      </c>
+      <c r="J18" t="n">
+        <v>7</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q18" t="n">
         <v>5</v>
       </c>
-      <c r="J18" t="n">
-        <v>1</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2</v>
-      </c>
       <c r="R18" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S18" t="n">
         <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -1966,45 +1966,45 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:20 - 1st Half</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -2016,22 +2016,22 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2048,17 +2048,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -2077,16 +2077,16 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I20" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -2095,25 +2095,25 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="S20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2130,72 +2130,72 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, January 31st at 6:30 PM EST</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
+        <v>5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
         <v>4</v>
       </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2</v>
-      </c>
-      <c r="P21" t="n">
-        <v>9</v>
-      </c>
       <c r="Q21" t="n">
         <v>2</v>
       </c>
       <c r="R21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2222,35 +2222,35 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>14:20 - 1st Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2259,31 +2259,31 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q22" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2304,17 +2304,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2323,49 +2323,49 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -2376,78 +2376,78 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H24" t="n">
+        <v>19</v>
+      </c>
+      <c r="I24" t="n">
+        <v>16</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>38</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>6</v>
+      </c>
+      <c r="R24" t="n">
+        <v>9</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="n">
         <v>4</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>2</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -2458,7 +2458,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2468,17 +2468,17 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2487,49 +2487,49 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="I25" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>8</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="n">
         <v>5</v>
       </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="U25" t="n">
+        <v>4</v>
+      </c>
+      <c r="V25" t="n">
         <v>5</v>
-      </c>
-      <c r="R25" t="n">
-        <v>9</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" t="n">
-        <v>8</v>
-      </c>
-      <c r="V25" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2540,7 +2540,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2550,62 +2550,62 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Otega Oweh</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, January 31st at 6:30 PM EST</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>4</v>
       </c>
-      <c r="K26" t="n">
-        <v>2</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>22</v>
-      </c>
       <c r="Q26" t="n">
         <v>2</v>
       </c>
       <c r="R26" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2622,78 +2622,78 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:20 - 1st Half</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="Q27" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2704,7 +2704,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2714,68 +2714,68 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J28" t="n">
         <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O28" t="n">
         <v>4</v>
       </c>
       <c r="P28" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="n">
+        <v>2</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>4</v>
+      </c>
+      <c r="U28" t="n">
         <v>5</v>
       </c>
-      <c r="R28" t="n">
-        <v>11</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1</v>
-      </c>
-      <c r="T28" t="n">
-        <v>3</v>
-      </c>
-      <c r="U28" t="n">
-        <v>4</v>
-      </c>
       <c r="V28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2796,35 +2796,35 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2836,25 +2836,25 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
         <v>5</v>
       </c>
-      <c r="R29" t="n">
-        <v>13</v>
-      </c>
       <c r="S29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T29" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>2</v>
@@ -2868,7 +2868,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2878,62 +2878,62 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, January 31st at 6:30 PM EST</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>4</v>
       </c>
-      <c r="P30" t="n">
-        <v>29</v>
-      </c>
       <c r="Q30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2950,7 +2950,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2979,16 +2979,16 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3042,17 +3042,17 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3061,49 +3061,49 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I32" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J32" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R32" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="S32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="U32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3124,68 +3124,68 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J33" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P33" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="Q33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R33" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3196,7 +3196,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3206,35 +3206,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, January 31st at 6:30 PM EST</t>
         </is>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3243,31 +3243,31 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>4</v>
       </c>
-      <c r="P34" t="n">
-        <v>24</v>
-      </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3278,78 +3278,78 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Sat, January 31st at 6:30 PM EST</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>15</v>
+        <v>-2</v>
       </c>
       <c r="I35" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="Q35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="S35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3360,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3370,68 +3370,68 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="I36" t="n">
+        <v>21</v>
+      </c>
+      <c r="J36" t="n">
+        <v>3</v>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>4</v>
+      </c>
+      <c r="P36" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>9</v>
+      </c>
+      <c r="R36" t="n">
         <v>13</v>
       </c>
-      <c r="J36" t="n">
-        <v>2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>10</v>
-      </c>
       <c r="S36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>3</v>
       </c>
       <c r="V36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3452,17 +3452,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -3471,49 +3471,49 @@
         </is>
       </c>
       <c r="H37" t="n">
+        <v>6</v>
+      </c>
+      <c r="I37" t="n">
+        <v>12</v>
+      </c>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>9</v>
+      </c>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="n">
         <v>7</v>
       </c>
-      <c r="I37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>2</v>
-      </c>
-      <c r="O37" t="n">
-        <v>4</v>
-      </c>
-      <c r="P37" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>2</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2</v>
-      </c>
-      <c r="S37" t="n">
-        <v>2</v>
-      </c>
-      <c r="T37" t="n">
-        <v>2</v>
-      </c>
       <c r="U37" t="n">
         <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3534,17 +3534,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -3553,37 +3553,37 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>3</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P38" t="n">
         <v>13</v>
       </c>
-      <c r="J38" t="n">
-        <v>13</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="n">
-        <v>2</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2</v>
-      </c>
-      <c r="P38" t="n">
-        <v>25</v>
-      </c>
       <c r="Q38" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3592,10 +3592,10 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39">
@@ -3606,78 +3606,78 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I39" t="n">
         <v>18</v>
       </c>
       <c r="J39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K39" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
+        <v>9</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>1</v>
+      </c>
+      <c r="U39" t="n">
         <v>8</v>
       </c>
-      <c r="S39" t="n">
-        <v>3</v>
-      </c>
-      <c r="T39" t="n">
-        <v>6</v>
-      </c>
-      <c r="U39" t="n">
-        <v>7</v>
-      </c>
       <c r="V39" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -3688,27 +3688,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3717,49 +3717,49 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="I40" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
+        <v>4</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>3</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
         <v>8</v>
       </c>
-      <c r="K40" t="n">
-        <v>4</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3</v>
-      </c>
-      <c r="O40" t="n">
-        <v>1</v>
-      </c>
-      <c r="P40" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>11</v>
-      </c>
       <c r="S40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T40" t="n">
         <v>4</v>
       </c>
       <c r="U40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3770,7 +3770,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -3780,12 +3780,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -3799,49 +3799,49 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I41" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J41" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P41" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Q41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R41" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="S41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T41" t="n">
+        <v>12</v>
+      </c>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
         <v>6</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3852,7 +3852,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3862,26 +3862,26 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I42" t="n">
         <v>15</v>
@@ -3890,40 +3890,40 @@
         <v>2</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P42" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>11</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="n">
+        <v>3</v>
+      </c>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
         <v>6</v>
-      </c>
-      <c r="R42" t="n">
-        <v>10</v>
-      </c>
-      <c r="S42" t="n">
-        <v>3</v>
-      </c>
-      <c r="T42" t="n">
-        <v>4</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3963,49 +3963,49 @@
         </is>
       </c>
       <c r="H43" t="n">
+        <v>10</v>
+      </c>
+      <c r="I43" t="n">
         <v>14</v>
       </c>
-      <c r="I43" t="n">
-        <v>8</v>
-      </c>
       <c r="J43" t="n">
+        <v>1</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>28</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>13</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="n">
         <v>6</v>
       </c>
-      <c r="K43" t="n">
-        <v>2</v>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1</v>
-      </c>
-      <c r="O43" t="n">
-        <v>1</v>
-      </c>
-      <c r="P43" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>1</v>
-      </c>
-      <c r="T43" t="n">
-        <v>2</v>
-      </c>
       <c r="U43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4026,50 +4026,50 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I44" t="n">
         <v>12</v>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K44" t="n">
         <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P44" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Q44" t="n">
         <v>5</v>
@@ -4078,16 +4078,16 @@
         <v>11</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4108,12 +4108,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4127,13 +4127,13 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I45" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K45" t="n">
         <v>1</v>
@@ -4145,25 +4145,25 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P45" t="n">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -4180,75 +4180,75 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I46" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="K46" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P46" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U46" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V46" t="n">
         <v>6</v>
@@ -4262,45 +4262,45 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I47" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J47" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L47" t="n">
         <v>1</v>
@@ -4309,31 +4309,31 @@
         <v>1</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P47" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q47" t="n">
         <v>4</v>
       </c>
       <c r="R47" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="S47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
@@ -4344,45 +4344,45 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:20 - 1st Half</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I48" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
         <v>1</v>
@@ -4394,28 +4394,28 @@
         <v>1</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P48" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="Q48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R48" t="n">
         <v>8</v>
       </c>
       <c r="S48" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T48" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -4426,48 +4426,48 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
@@ -4479,25 +4479,25 @@
         <v>4</v>
       </c>
       <c r="P49" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
       </c>
       <c r="T49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4518,62 +4518,62 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I50" t="n">
+        <v>15</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1</v>
+      </c>
+      <c r="K50" t="n">
+        <v>8</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>3</v>
+      </c>
+      <c r="P50" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q50" t="n">
         <v>6</v>
       </c>
-      <c r="J50" t="n">
+      <c r="R50" t="n">
+        <v>15</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="n">
         <v>6</v>
-      </c>
-      <c r="K50" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="n">
-        <v>1</v>
-      </c>
-      <c r="O50" t="n">
-        <v>2</v>
-      </c>
-      <c r="P50" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>3</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>0</v>
-      </c>
-      <c r="T50" t="n">
-        <v>0</v>
       </c>
       <c r="U50" t="n">
         <v>0</v>
@@ -4590,7 +4590,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -4600,17 +4600,17 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4619,49 +4619,49 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J51" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P51" t="n">
         <v>29</v>
       </c>
       <c r="Q51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R51" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T51" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U51" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4682,17 +4682,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I52" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>2</v>
+      </c>
+      <c r="O52" t="n">
         <v>4</v>
       </c>
-      <c r="K52" t="n">
-        <v>3</v>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" t="n">
-        <v>3</v>
-      </c>
-      <c r="O52" t="n">
-        <v>3</v>
-      </c>
       <c r="P52" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="Q52" t="n">
         <v>2</v>
       </c>
       <c r="R52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4764,32 +4764,32 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>14:20 - 1st Half</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I53" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
@@ -4801,25 +4801,25 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P53" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="Q53" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R53" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T53" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
         <v>0</v>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4846,38 +4846,38 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Sat, January 31st at 6:30 PM EST</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
         <v>0</v>
@@ -4886,28 +4886,28 @@
         <v>0</v>
       </c>
       <c r="O54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P54" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -4928,17 +4928,17 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -4947,37 +4947,37 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="I55" t="n">
+        <v>13</v>
+      </c>
+      <c r="J55" t="n">
+        <v>13</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>2</v>
+      </c>
+      <c r="P55" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q55" t="n">
         <v>6</v>
       </c>
-      <c r="J55" t="n">
-        <v>4</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" t="n">
-        <v>0</v>
-      </c>
-      <c r="O55" t="n">
-        <v>4</v>
-      </c>
-      <c r="P55" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>3</v>
-      </c>
       <c r="R55" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -4986,10 +4986,10 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -5010,7 +5010,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -5029,49 +5029,49 @@
         </is>
       </c>
       <c r="H56" t="n">
+        <v>23</v>
+      </c>
+      <c r="I56" t="n">
+        <v>18</v>
+      </c>
+      <c r="J56" t="n">
+        <v>7</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>3</v>
+      </c>
+      <c r="P56" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
         <v>8</v>
       </c>
-      <c r="I56" t="n">
-        <v>3</v>
-      </c>
-      <c r="J56" t="n">
-        <v>4</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" t="n">
-        <v>2</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>1</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1</v>
-      </c>
       <c r="S56" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T56" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U56" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V56" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57">
@@ -5092,17 +5092,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5111,49 +5111,49 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I57" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J57" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K57" t="n">
         <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P57" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R57" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="S57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T57" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U57" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V57" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58">
@@ -5174,12 +5174,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -5193,43 +5193,43 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="I58" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="n">
+        <v>3</v>
+      </c>
+      <c r="P58" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q58" t="n">
         <v>5</v>
       </c>
-      <c r="P58" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>3</v>
-      </c>
       <c r="R58" t="n">
+        <v>8</v>
+      </c>
+      <c r="S58" t="n">
+        <v>3</v>
+      </c>
+      <c r="T58" t="n">
         <v>6</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1</v>
-      </c>
-      <c r="T58" t="n">
-        <v>3</v>
       </c>
       <c r="U58" t="n">
         <v>0</v>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -5275,43 +5275,43 @@
         </is>
       </c>
       <c r="H59" t="n">
+        <v>14</v>
+      </c>
+      <c r="I59" t="n">
+        <v>15</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>2</v>
+      </c>
+      <c r="P59" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q59" t="n">
         <v>6</v>
       </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2</v>
-      </c>
-      <c r="K59" t="n">
-        <v>1</v>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>1</v>
-      </c>
       <c r="R59" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S59" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U59" t="n">
         <v>0</v>
@@ -5338,17 +5338,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5357,49 +5357,49 @@
         </is>
       </c>
       <c r="H60" t="n">
+        <v>14</v>
+      </c>
+      <c r="I60" t="n">
+        <v>8</v>
+      </c>
+      <c r="J60" t="n">
         <v>6</v>
       </c>
-      <c r="I60" t="n">
-        <v>3</v>
-      </c>
-      <c r="J60" t="n">
+      <c r="K60" t="n">
+        <v>2</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
         <v>4</v>
       </c>
-      <c r="K60" t="n">
-        <v>0</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>1</v>
-      </c>
-      <c r="R60" t="n">
-        <v>1</v>
-      </c>
       <c r="S60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U60" t="n">
         <v>1</v>
       </c>
       <c r="V60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="61">
@@ -5420,7 +5420,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -5439,49 +5439,49 @@
         </is>
       </c>
       <c r="H61" t="n">
+        <v>14</v>
+      </c>
+      <c r="I61" t="n">
+        <v>12</v>
+      </c>
+      <c r="J61" t="n">
         <v>5</v>
       </c>
-      <c r="I61" t="n">
-        <v>4</v>
-      </c>
-      <c r="J61" t="n">
-        <v>3</v>
-      </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P61" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="S61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61" t="n">
         <v>2</v>
       </c>
       <c r="U61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62">
@@ -5502,17 +5502,17 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -5521,49 +5521,49 @@
         </is>
       </c>
       <c r="H62" t="n">
+        <v>13</v>
+      </c>
+      <c r="I62" t="n">
+        <v>13</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>4</v>
+      </c>
+      <c r="P62" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q62" t="n">
         <v>5</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3</v>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" t="n">
-        <v>1</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>2</v>
       </c>
       <c r="R62" t="n">
         <v>6</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -5584,68 +5584,68 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H63" t="n">
+        <v>13</v>
+      </c>
+      <c r="I63" t="n">
+        <v>14</v>
+      </c>
+      <c r="J63" t="n">
+        <v>3</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>2</v>
+      </c>
+      <c r="P63" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>9</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="n">
         <v>5</v>
       </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3</v>
-      </c>
-      <c r="K63" t="n">
-        <v>1</v>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" t="n">
-        <v>0</v>
-      </c>
-      <c r="O63" t="n">
-        <v>1</v>
-      </c>
-      <c r="P63" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>0</v>
-      </c>
-      <c r="R63" t="n">
-        <v>2</v>
-      </c>
-      <c r="S63" t="n">
-        <v>0</v>
-      </c>
-      <c r="T63" t="n">
-        <v>0</v>
-      </c>
       <c r="U63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64">
@@ -5666,53 +5666,53 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
+        <v>13</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10</v>
+      </c>
+      <c r="J64" t="n">
+        <v>2</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>2</v>
+      </c>
+      <c r="P64" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q64" t="n">
         <v>4</v>
-      </c>
-      <c r="I64" t="n">
-        <v>8</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1</v>
-      </c>
-      <c r="K64" t="n">
-        <v>1</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="n">
-        <v>1</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>2</v>
       </c>
       <c r="R64" t="n">
         <v>7</v>
@@ -5721,13 +5721,13 @@
         <v>2</v>
       </c>
       <c r="T64" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -5748,17 +5748,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -5767,49 +5767,49 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J65" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
         <v>0</v>
       </c>
       <c r="P65" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="Q65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R65" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T65" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -5830,12 +5830,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -5849,34 +5849,34 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I66" t="n">
+        <v>6</v>
+      </c>
+      <c r="J66" t="n">
         <v>5</v>
       </c>
-      <c r="J66" t="n">
-        <v>1</v>
-      </c>
       <c r="K66" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
         <v>0</v>
       </c>
       <c r="N66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P66" t="n">
         <v>20</v>
       </c>
       <c r="Q66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R66" t="n">
         <v>5</v>
@@ -5885,13 +5885,13 @@
         <v>0</v>
       </c>
       <c r="T66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -5912,17 +5912,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5931,37 +5931,37 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J67" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67" t="n">
         <v>0</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P67" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S67" t="n">
         <v>0</v>
@@ -5994,17 +5994,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -6013,13 +6013,13 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K68" t="n">
         <v>0</v>
@@ -6028,34 +6028,34 @@
         <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P68" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="Q68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
       </c>
       <c r="T68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U68" t="n">
         <v>0</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69">
@@ -6076,17 +6076,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -6095,49 +6095,49 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P69" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="Q69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R69" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T69" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V69" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70">
@@ -6158,12 +6158,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -6177,13 +6177,13 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
@@ -6195,25 +6195,25 @@
         <v>0</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
       </c>
       <c r="P70" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="Q70" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="R70" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T70" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
@@ -6240,38 +6240,38 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J71" t="n">
         <v>1</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M71" t="n">
         <v>0</v>
@@ -6280,28 +6280,28 @@
         <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P71" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72">
@@ -6322,12 +6322,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -6341,13 +6341,13 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K72" t="n">
         <v>0</v>
@@ -6356,22 +6356,22 @@
         <v>0</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
       </c>
       <c r="O72" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P72" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
         <v>5</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>0</v>
-      </c>
-      <c r="R72" t="n">
-        <v>1</v>
       </c>
       <c r="S72" t="n">
         <v>0</v>
@@ -6404,35 +6404,35 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L73" t="n">
         <v>0</v>
@@ -6441,25 +6441,25 @@
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U73" t="n">
         <v>0</v>
@@ -6486,12 +6486,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -6505,19 +6505,19 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M74" t="n">
         <v>0</v>
@@ -6526,25 +6526,25 @@
         <v>0</v>
       </c>
       <c r="O74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P74" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
       </c>
       <c r="R74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V74" t="n">
         <v>2</v>
@@ -6568,17 +6568,17 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Kai Rogers</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -6587,13 +6587,13 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K75" t="n">
         <v>0</v>
@@ -6605,25 +6605,25 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P75" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="Q75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R75" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
@@ -6650,67 +6650,2609 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>Jamie Vinson</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>TA&amp;M@UGA</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+      <c r="I76" t="n">
+        <v>2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>2</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1</v>
+      </c>
+      <c r="S76" t="n">
+        <v>0</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Mike James</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>14:20 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+      <c r="I77" t="n">
+        <v>6</v>
+      </c>
+      <c r="J77" t="n">
+        <v>4</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>2</v>
+      </c>
+      <c r="P77" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>2</v>
+      </c>
+      <c r="R77" t="n">
+        <v>6</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2</v>
+      </c>
+      <c r="T77" t="n">
+        <v>5</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Sergej Macura</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>MSST@MIZ</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>4</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>0</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Grant Polk</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LSU@SC</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+      <c r="I79" t="n">
+        <v>4</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>0</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Ja'Borri McGhee</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>MSST</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>MSST@MIZ</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+      <c r="I80" t="n">
+        <v>6</v>
+      </c>
+      <c r="J80" t="n">
+        <v>1</v>
+      </c>
+      <c r="K80" t="n">
+        <v>3</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="n">
+        <v>0</v>
+      </c>
+      <c r="P80" t="n">
+        <v>24</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>2</v>
+      </c>
+      <c r="R80" t="n">
+        <v>6</v>
+      </c>
+      <c r="S80" t="n">
+        <v>1</v>
+      </c>
+      <c r="T80" t="n">
+        <v>3</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Josh Holloway</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>TA&amp;M@UGA</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+      <c r="I81" t="n">
+        <v>2</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Kezza Giffa</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>14:20 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+      <c r="I82" t="n">
+        <v>5</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>1</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1</v>
+      </c>
+      <c r="S82" t="n">
+        <v>0</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>AK Okereke</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>14:20 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+      <c r="I83" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>3</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0</v>
+      </c>
+      <c r="P83" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>0</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Corey Chest</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>14:20 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>0</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>PJ Carter</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>LSU</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>LSU@SC</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+      <c r="I85" t="n">
+        <v>8</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1</v>
+      </c>
+      <c r="O85" t="n">
+        <v>0</v>
+      </c>
+      <c r="P85" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>2</v>
+      </c>
+      <c r="R85" t="n">
+        <v>7</v>
+      </c>
+      <c r="S85" t="n">
+        <v>2</v>
+      </c>
+      <c r="T85" t="n">
+        <v>7</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Andrija Jelavic</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>UK</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>UK@ARK</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Sat, January 31st at 6:30 PM EST</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>0</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Annor Boateng</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>MSST@MIZ</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2</v>
+      </c>
+      <c r="O87" t="n">
+        <v>0</v>
+      </c>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>1</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1</v>
+      </c>
+      <c r="S87" t="n">
+        <v>0</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>EJ Walker</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>LSU@SC</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+      <c r="I88" t="n">
+        <v>5</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2</v>
+      </c>
+      <c r="O88" t="n">
+        <v>2</v>
+      </c>
+      <c r="P88" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>0</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Eduardo Klafke</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>14:20 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>2</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2</v>
+      </c>
+      <c r="O89" t="n">
+        <v>2</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>0</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Justin Abson</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>TA&amp;M@UGA</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>0</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Kareem Stagg</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>TA&amp;M@UGA</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>3</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+      <c r="O91" t="n">
+        <v>2</v>
+      </c>
+      <c r="P91" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1</v>
+      </c>
+      <c r="S91" t="n">
+        <v>0</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Lassina Traore</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>TEX</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>TEX@OU</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P92" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0</v>
+      </c>
+      <c r="S92" t="n">
+        <v>0</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Tyler Harris</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>14:20 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+      <c r="I93" t="n">
+        <v>4</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="n">
+        <v>0</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>2</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>0</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Federiko Federiko</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>TA&amp;M@UGA</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
+      </c>
+      <c r="P94" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>0</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Hayden Assemian</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>LSU@SC</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Final/OT</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>0</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0</v>
+      </c>
+      <c r="S95" t="n">
+        <v>0</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Nicholas Randall</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>MSST@MIZ</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1</v>
+      </c>
+      <c r="S96" t="n">
+        <v>0</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Patton Pinkins</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>14:20 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
+      </c>
+      <c r="P97" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>1</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2</v>
+      </c>
+      <c r="S97" t="n">
+        <v>0</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Trent Burns</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>MIZ</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>MSST@MIZ</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>0</v>
+      </c>
+      <c r="S98" t="n">
+        <v>0</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Zach Clemence</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>TA&amp;M</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>TA&amp;M@UGA</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>2</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>0</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>0</v>
+      </c>
+      <c r="T99" t="n">
+        <v>3</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Chandler Bing</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>14:20 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>0</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>0</v>
+      </c>
+      <c r="P100" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>0</v>
+      </c>
+      <c r="S100" t="n">
+        <v>0</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Kai Rogers</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>TEX@OU</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>0</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>0</v>
+      </c>
+      <c r="S101" t="n">
+        <v>0</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Niko Bundalo</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>14:20 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>0</v>
+      </c>
+      <c r="S102" t="n">
+        <v>0</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Zach Day</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>14:20 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0</v>
+      </c>
+      <c r="M103" t="n">
+        <v>0</v>
+      </c>
+      <c r="N103" t="n">
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1</v>
+      </c>
+      <c r="S103" t="n">
+        <v>0</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Augusto Cassiá</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>14:20 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
+      </c>
+      <c r="P104" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1</v>
+      </c>
+      <c r="S104" t="n">
+        <v>0</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>Justin Bailey</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>UGA</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>TA&amp;M@UGA</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H76" t="n">
+      <c r="H105" t="n">
         <v>-1</v>
       </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0</v>
-      </c>
-      <c r="N76" t="n">
-        <v>1</v>
-      </c>
-      <c r="O76" t="n">
+      <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+      <c r="O105" t="n">
         <v>4</v>
       </c>
-      <c r="P76" t="n">
+      <c r="P105" t="n">
         <v>9</v>
       </c>
-      <c r="Q76" t="n">
-        <v>1</v>
-      </c>
-      <c r="R76" t="n">
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" t="n">
         <v>4</v>
       </c>
-      <c r="S76" t="n">
-        <v>0</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1</v>
-      </c>
-      <c r="U76" t="n">
-        <v>0</v>
-      </c>
-      <c r="V76" t="n">
+      <c r="S105" t="n">
+        <v>0</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Koren Johnson</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>14:20 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1</v>
+      </c>
+      <c r="P106" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>0</v>
+      </c>
+      <c r="S106" t="n">
+        <v>0</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Travis Perry</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>14:20 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6762,46 +9304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
@@ -6817,7 +9359,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -6827,10 +9369,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -6840,10 +9382,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="24" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -1156,32 +1156,32 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>James Scott</t>
+          <t>Billy Richmond III</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1196,16 +1196,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1214,10 +1214,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Devin McGlockton</t>
+          <t>James Scott</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1253,20 +1253,20 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1278,22 +1278,22 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1310,78 +1310,78 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Meechie Johnson</t>
+          <t>Devin McGlockton</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1402,68 +1402,68 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Trevon Brazile</t>
+          <t>Meechie Johnson</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 6:30 PM EST</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -1479,73 +1479,73 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Jayden Epps</t>
+          <t>Trevon Brazile</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="I13" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
         <v>4</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>3</v>
-      </c>
-      <c r="O13" t="n">
-        <v>4</v>
-      </c>
-      <c r="P13" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>9</v>
-      </c>
-      <c r="R13" t="n">
-        <v>20</v>
-      </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1566,17 +1566,17 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Nijel Pack</t>
+          <t>Jayden Epps</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1585,37 +1585,37 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I14" t="n">
         <v>23</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>3</v>
+      </c>
+      <c r="O14" t="n">
         <v>4</v>
       </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
       <c r="P14" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="Q14" t="n">
         <v>9</v>
       </c>
       <c r="R14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S14" t="n">
         <v>3</v>
@@ -1648,68 +1648,68 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Meleek Thomas</t>
+          <t>Nijel Pack</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 6:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
+        <v>13</v>
+      </c>
+      <c r="I15" t="n">
+        <v>23</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3</v>
+      </c>
+      <c r="K15" t="n">
+        <v>3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
         <v>4</v>
       </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -1745,14 +1745,14 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 6:30 PM EST</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1827,41 +1827,41 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I17" t="n">
+        <v>6</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="n">
         <v>4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1884,78 +1884,78 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Meleek Thomas</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>1</v>
       </c>
       <c r="P18" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1976,68 +1976,68 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tyler Nickel</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O19" t="n">
         <v>1</v>
       </c>
       <c r="P19" t="n">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
+        <v>14</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="n">
         <v>4</v>
       </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3</v>
-      </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -2053,43 +2053,43 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Kirill Elatontsev</t>
+          <t>Tyler Nickel</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -2101,19 +2101,19 @@
         <v>1</v>
       </c>
       <c r="P20" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="Q20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2140,38 +2140,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Collin Chandler</t>
+          <t>Kirill Elatontsev</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 6:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -2183,19 +2183,19 @@
         <v>1</v>
       </c>
       <c r="P21" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q21" t="n">
         <v>4</v>
       </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S21" t="n">
         <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,32 +2222,32 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Ilias Kamardine</t>
+          <t>Collin Chandler</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2265,16 +2265,16 @@
         <v>1</v>
       </c>
       <c r="P22" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
         <v>2</v>
@@ -2304,68 +2304,68 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Quincy Ballard</t>
+          <t>Ilias Kamardine</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>1</v>
       </c>
       <c r="P23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2376,78 +2376,78 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Marquel Sutton</t>
+          <t>Quincy Ballard</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
         <v>16</v>
       </c>
-      <c r="J24" t="n">
-        <v>8</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>38</v>
-      </c>
       <c r="Q24" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -2468,62 +2468,62 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Jayden Stone</t>
+          <t>Marquel Sutton</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
         <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U25" t="n">
         <v>4</v>
@@ -2565,42 +2565,42 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 6:30 PM EST</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H26" t="n">
+        <v>13</v>
+      </c>
+      <c r="I26" t="n">
+        <v>9</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>8</v>
       </c>
-      <c r="I26" t="n">
+      <c r="Q26" t="n">
         <v>4</v>
       </c>
-      <c r="J26" t="n">
-        <v>3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
+      <c r="R26" t="n">
         <v>4</v>
       </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2</v>
-      </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -2632,68 +2632,68 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AJ Storr</t>
+          <t>Jayden Stone</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I27" t="n">
+        <v>11</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>33</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>8</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="n">
         <v>5</v>
       </c>
-      <c r="J27" t="n">
-        <v>2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" t="n">
+      <c r="U27" t="n">
         <v>4</v>
       </c>
-      <c r="S27" t="n">
-        <v>1</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
@@ -2709,73 +2709,73 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>AJ Storr</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
         <v>2</v>
       </c>
       <c r="K28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="Q28" t="n">
         <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2796,68 +2796,68 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Myles Stute</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I29" t="n">
+        <v>9</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>4</v>
+      </c>
+      <c r="P29" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>4</v>
+      </c>
+      <c r="U29" t="n">
         <v>5</v>
       </c>
-      <c r="J29" t="n">
-        <v>1</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>18</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -2878,32 +2878,32 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Nick Pringle</t>
+          <t>Myles Stute</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 6:30 PM EST</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2921,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2960,26 +2960,26 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Jadon Jones</t>
+          <t>Nick Pringle</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3032,17 +3032,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Xzayvier Brown</t>
+          <t>Jadon Jones</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3061,43 +3061,43 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="I32" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3124,17 +3124,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Somtochukwu Cyril</t>
+          <t>Xzayvier Brown</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3143,43 +3143,43 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I33" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="Q33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R33" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3206,35 +3206,35 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Malachi Moreno</t>
+          <t>Somtochukwu Cyril</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 6:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3288,12 +3288,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Darius Acuff Jr.</t>
+          <t>Malachi Moreno</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3303,20 +3303,20 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 6:30 PM EST</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3331,25 +3331,25 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3365,37 +3365,37 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mike Nwoko</t>
+          <t>Darius Acuff Jr.</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>20</v>
+        <v>-4</v>
       </c>
       <c r="I36" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -3407,31 +3407,31 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="Q36" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -3452,35 +3452,35 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Jordan Pope</t>
+          <t>Mike Nwoko</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I37" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -3492,25 +3492,25 @@
         <v>1</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P37" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R37" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>3</v>
@@ -3534,12 +3534,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Jeff Nwankwo</t>
+          <t>Jordan Pope</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -3553,49 +3553,49 @@
         </is>
       </c>
       <c r="H38" t="n">
+        <v>6</v>
+      </c>
+      <c r="I38" t="n">
+        <v>12</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q38" t="n">
         <v>4</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>1</v>
-      </c>
-      <c r="L38" t="n">
-        <v>2</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>2</v>
-      </c>
-      <c r="P38" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39">
@@ -3606,22 +3606,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Dailyn Swain</t>
+          <t>Jeff Nwankwo</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -3635,49 +3635,49 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="K39" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P39" t="n">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="Q39" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40">
@@ -3698,17 +3698,17 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Rylan Griffen</t>
+          <t>Dailyn Swain</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -3717,49 +3717,49 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="I40" t="n">
+        <v>18</v>
+      </c>
+      <c r="J40" t="n">
+        <v>10</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
         <v>5</v>
       </c>
-      <c r="J40" t="n">
-        <v>4</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2</v>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>3</v>
-      </c>
       <c r="O40" t="n">
         <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="Q40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R40" t="n">
+        <v>9</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1</v>
+      </c>
+      <c r="U40" t="n">
         <v>8</v>
       </c>
-      <c r="S40" t="n">
-        <v>1</v>
-      </c>
-      <c r="T40" t="n">
-        <v>4</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -3775,22 +3775,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Josh Hubbard</t>
+          <t>Rylan Griffen</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -3799,49 +3799,49 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
+        <v>5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>3</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
         <v>22</v>
       </c>
-      <c r="J41" t="n">
-        <v>6</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>3</v>
-      </c>
-      <c r="O41" t="n">
-        <v>1</v>
-      </c>
-      <c r="P41" t="n">
-        <v>32</v>
-      </c>
       <c r="Q41" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R41" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="n">
         <v>4</v>
       </c>
-      <c r="T41" t="n">
-        <v>12</v>
-      </c>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3857,73 +3857,73 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Kobe Knox</t>
+          <t>Mouhamed Dioubate</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>4</v>
       </c>
-      <c r="P42" t="n">
-        <v>37</v>
-      </c>
       <c r="Q42" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3944,17 +3944,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Blue Cain</t>
+          <t>Josh Hubbard</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3963,49 +3963,49 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="I43" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O43" t="n">
         <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="R43" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="S43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T43" t="n">
+        <v>12</v>
+      </c>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
         <v>6</v>
-      </c>
-      <c r="U43" t="n">
-        <v>2</v>
-      </c>
-      <c r="V43" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -4026,50 +4026,50 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Marcus Millender</t>
+          <t>Kobe Knox</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I44" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J44" t="n">
         <v>2</v>
       </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>4</v>
       </c>
       <c r="P44" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q44" t="n">
         <v>5</v>
@@ -4078,16 +4078,16 @@
         <v>11</v>
       </c>
       <c r="S44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T44" t="n">
         <v>3</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
@@ -4108,17 +4108,17 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mohamed Wague</t>
+          <t>Blue Cain</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4127,16 +4127,16 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4148,28 +4148,28 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P45" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46">
@@ -4180,22 +4180,22 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Rashaun Agee</t>
+          <t>Marcus Millender</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4209,49 +4209,49 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I46" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="J46" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="K46" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P46" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q46" t="n">
         <v>5</v>
       </c>
       <c r="R46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S46" t="n">
         <v>2</v>
       </c>
       <c r="T46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4262,78 +4262,78 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mike Sharavjamts</t>
+          <t>Mohamed Wague</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K47" t="n">
         <v>1</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47" t="n">
         <v>3</v>
       </c>
       <c r="P47" t="n">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="Q47" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="S47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -4354,68 +4354,68 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Tyler Tanner</t>
+          <t>Rashaun Agee</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
+        <v>33</v>
+      </c>
+      <c r="I48" t="n">
+        <v>18</v>
+      </c>
+      <c r="J48" t="n">
+        <v>15</v>
+      </c>
+      <c r="K48" t="n">
+        <v>7</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3</v>
+      </c>
+      <c r="O48" t="n">
+        <v>3</v>
+      </c>
+      <c r="P48" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
         <v>10</v>
       </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2</v>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" t="n">
-        <v>2</v>
-      </c>
-      <c r="P48" t="n">
-        <v>17</v>
-      </c>
-      <c r="Q48" t="n">
+      <c r="S48" t="n">
+        <v>2</v>
+      </c>
+      <c r="T48" t="n">
         <v>4</v>
       </c>
-      <c r="R48" t="n">
-        <v>8</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1</v>
-      </c>
-      <c r="T48" t="n">
-        <v>3</v>
-      </c>
       <c r="U48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V48" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -4436,62 +4436,62 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Tae Davis</t>
+          <t>Mike Sharavjamts</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I49" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="J49" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
         <v>1</v>
       </c>
       <c r="O49" t="n">
+        <v>3</v>
+      </c>
+      <c r="P49" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q49" t="n">
         <v>4</v>
       </c>
-      <c r="P49" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>0</v>
-      </c>
       <c r="R49" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="S49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U49" t="n">
         <v>2</v>
@@ -4513,73 +4513,73 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Max Mackinnon</t>
+          <t>Tyler Tanner</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I50" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+      <c r="P50" t="n">
+        <v>17</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
         <v>8</v>
       </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="n">
-        <v>2</v>
-      </c>
-      <c r="N50" t="n">
-        <v>2</v>
-      </c>
-      <c r="O50" t="n">
-        <v>3</v>
-      </c>
-      <c r="P50" t="n">
-        <v>40</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>6</v>
-      </c>
-      <c r="R50" t="n">
-        <v>15</v>
-      </c>
       <c r="S50" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T50" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -4595,22 +4595,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Rubén Dominguez</t>
+          <t>Tae Davis</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -4619,19 +4619,19 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -4640,28 +4640,28 @@
         <v>1</v>
       </c>
       <c r="O51" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P51" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="Q51" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R51" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T51" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="U51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -4682,68 +4682,68 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Max Mackinnon</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I52" t="n">
+        <v>15</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1</v>
+      </c>
+      <c r="K52" t="n">
         <v>8</v>
       </c>
-      <c r="J52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
         <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N52" t="n">
         <v>2</v>
       </c>
       <c r="O52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P52" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>6</v>
+      </c>
+      <c r="R52" t="n">
         <v>15</v>
       </c>
-      <c r="Q52" t="n">
-        <v>2</v>
-      </c>
-      <c r="R52" t="n">
-        <v>2</v>
-      </c>
       <c r="S52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T52" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4764,68 +4764,68 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Rubén Dominguez</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I53" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P53" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R53" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="S53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54">
@@ -4846,32 +4846,32 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Karter Knox</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 6:30 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" t="n">
         <v>0</v>
@@ -4883,31 +4883,31 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4928,56 +4928,56 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Dylan James</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I55" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O55" t="n">
         <v>2</v>
       </c>
       <c r="P55" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="Q55" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R55" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -4986,10 +4986,10 @@
         <v>0</v>
       </c>
       <c r="U55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Undrafted</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5010,68 +5010,68 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Rashad King</t>
+          <t>Karter Knox</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>23</v>
+        <v>-1</v>
       </c>
       <c r="I56" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P56" t="n">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="S56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T56" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U56" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V56" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -5092,17 +5092,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>Dylan James</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -5111,49 +5111,49 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I57" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J57" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P57" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="Q57" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T57" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U57" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V57" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -5174,53 +5174,53 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>Rashad King</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I58" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="J58" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O58" t="n">
         <v>3</v>
       </c>
       <c r="P58" t="n">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Q58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R58" t="n">
         <v>8</v>
@@ -5232,10 +5232,10 @@
         <v>6</v>
       </c>
       <c r="U58" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V58" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
@@ -5256,17 +5256,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -5275,16 +5275,16 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="I59" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L59" t="n">
         <v>1</v>
@@ -5293,31 +5293,31 @@
         <v>1</v>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P59" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="R59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T59" t="n">
         <v>4</v>
       </c>
       <c r="U59" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V59" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60">
@@ -5338,17 +5338,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -5357,49 +5357,49 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I60" t="n">
+        <v>13</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3</v>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>3</v>
+      </c>
+      <c r="P60" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
         <v>8</v>
       </c>
-      <c r="J60" t="n">
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="n">
         <v>6</v>
       </c>
-      <c r="K60" t="n">
-        <v>2</v>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="n">
-        <v>1</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1</v>
-      </c>
-      <c r="P60" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q60" t="n">
-        <v>3</v>
-      </c>
-      <c r="R60" t="n">
-        <v>4</v>
-      </c>
-      <c r="S60" t="n">
-        <v>1</v>
-      </c>
-      <c r="T60" t="n">
-        <v>2</v>
-      </c>
       <c r="U60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -5420,41 +5420,41 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H61" t="n">
         <v>14</v>
       </c>
       <c r="I61" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
         <v>1</v>
@@ -5463,25 +5463,25 @@
         <v>2</v>
       </c>
       <c r="P61" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R61" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S61" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -5502,7 +5502,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -5521,49 +5521,49 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I62" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J62" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
         <v>1</v>
       </c>
       <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
         <v>4</v>
       </c>
-      <c r="P62" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
-        <v>6</v>
-      </c>
       <c r="S62" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V62" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="63">
@@ -5584,7 +5584,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -5603,49 +5603,49 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I63" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="n">
         <v>2</v>
       </c>
       <c r="P63" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="Q63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="S63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U63" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V63" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -5666,7 +5666,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -5688,37 +5688,37 @@
         <v>13</v>
       </c>
       <c r="I64" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P64" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R64" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T64" t="n">
         <v>4</v>
@@ -5748,68 +5748,68 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J65" t="n">
+        <v>3</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>2</v>
+      </c>
+      <c r="P65" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>9</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="n">
+        <v>5</v>
+      </c>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
         <v>6</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>3</v>
-      </c>
-      <c r="R65" t="n">
-        <v>8</v>
-      </c>
-      <c r="S65" t="n">
-        <v>3</v>
-      </c>
-      <c r="T65" t="n">
-        <v>6</v>
-      </c>
-      <c r="U65" t="n">
-        <v>2</v>
-      </c>
-      <c r="V65" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="66">
@@ -5830,62 +5830,62 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I66" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
+        <v>2</v>
+      </c>
+      <c r="P66" t="n">
+        <v>21</v>
+      </c>
+      <c r="Q66" t="n">
         <v>4</v>
       </c>
-      <c r="P66" t="n">
-        <v>20</v>
-      </c>
-      <c r="Q66" t="n">
-        <v>3</v>
-      </c>
       <c r="R66" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T66" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U66" t="n">
         <v>0</v>
@@ -5912,17 +5912,17 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -5934,46 +5934,46 @@
         <v>12</v>
       </c>
       <c r="I67" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J67" t="n">
         <v>6</v>
       </c>
       <c r="K67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67" t="n">
         <v>1</v>
       </c>
       <c r="O67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P67" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="Q67" t="n">
         <v>3</v>
       </c>
       <c r="R67" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S67" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T67" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68">
@@ -5994,56 +5994,56 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J68" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
       <c r="M68" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O68" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P68" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S68" t="n">
         <v>0</v>
@@ -6055,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="V68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -6076,17 +6076,17 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -6095,49 +6095,49 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I69" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J69" t="n">
+        <v>6</v>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>2</v>
+      </c>
+      <c r="P69" t="n">
+        <v>16</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
         <v>4</v>
       </c>
-      <c r="K69" t="n">
-        <v>3</v>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>3</v>
-      </c>
-      <c r="O69" t="n">
-        <v>3</v>
-      </c>
-      <c r="P69" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q69" t="n">
-        <v>2</v>
-      </c>
-      <c r="R69" t="n">
-        <v>6</v>
-      </c>
       <c r="S69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -6158,17 +6158,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -6177,49 +6177,49 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I70" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J70" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" t="n">
         <v>29</v>
       </c>
       <c r="Q70" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R70" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="S70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T70" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U70" t="n">
         <v>0</v>
       </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -6240,17 +6240,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -6259,16 +6259,16 @@
         </is>
       </c>
       <c r="H71" t="n">
+        <v>10</v>
+      </c>
+      <c r="I71" t="n">
         <v>9</v>
       </c>
-      <c r="I71" t="n">
-        <v>5</v>
-      </c>
       <c r="J71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L71" t="n">
         <v>1</v>
@@ -6277,31 +6277,31 @@
         <v>0</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O71" t="n">
         <v>3</v>
       </c>
       <c r="P71" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Q71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R71" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S71" t="n">
         <v>1</v>
       </c>
       <c r="T71" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
@@ -6322,17 +6322,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -6341,43 +6341,43 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I72" t="n">
+        <v>14</v>
+      </c>
+      <c r="J72" t="n">
+        <v>5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q72" t="n">
         <v>6</v>
       </c>
-      <c r="J72" t="n">
-        <v>4</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0</v>
-      </c>
-      <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>4</v>
-      </c>
-      <c r="P72" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q72" t="n">
-        <v>3</v>
-      </c>
       <c r="R72" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U72" t="n">
         <v>0</v>
@@ -6404,50 +6404,50 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
         <v>0</v>
       </c>
       <c r="N73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O73" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P73" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q73" t="n">
         <v>1</v>
@@ -6462,10 +6462,10 @@
         <v>1</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
@@ -6486,17 +6486,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6505,49 +6505,49 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="n">
+        <v>0</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
         <v>4</v>
       </c>
-      <c r="L74" t="n">
-        <v>2</v>
-      </c>
-      <c r="M74" t="n">
-        <v>0</v>
-      </c>
-      <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="n">
-        <v>2</v>
-      </c>
       <c r="P74" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S74" t="n">
         <v>0</v>
       </c>
       <c r="T74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -6568,35 +6568,35 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I75" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
         <v>4</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L75" t="n">
         <v>0</v>
@@ -6605,25 +6605,25 @@
         <v>0</v>
       </c>
       <c r="N75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O75" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P75" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="Q75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R75" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S75" t="n">
         <v>1</v>
       </c>
       <c r="T75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U75" t="n">
         <v>0</v>
@@ -6650,68 +6650,68 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>AK Okereke</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M76" t="n">
         <v>0</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P76" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q76" t="n">
         <v>1</v>
       </c>
       <c r="R76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S76" t="n">
         <v>0</v>
       </c>
       <c r="T76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
@@ -6732,38 +6732,38 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I77" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J77" t="n">
+        <v>3</v>
+      </c>
+      <c r="K77" t="n">
         <v>4</v>
       </c>
-      <c r="K77" t="n">
-        <v>0</v>
-      </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M77" t="n">
         <v>0</v>
@@ -6775,25 +6775,25 @@
         <v>2</v>
       </c>
       <c r="P77" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="Q77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R77" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T77" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
@@ -6814,7 +6814,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I78" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J78" t="n">
         <v>4</v>
@@ -6851,31 +6851,31 @@
         <v>0</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P78" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q78" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -6896,62 +6896,62 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H79" t="n">
+        <v>7</v>
+      </c>
+      <c r="I79" t="n">
+        <v>6</v>
+      </c>
+      <c r="J79" t="n">
+        <v>4</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>0</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>2</v>
+      </c>
+      <c r="P79" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>6</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="n">
         <v>5</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>1</v>
-      </c>
-      <c r="P79" t="n">
-        <v>15</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>2</v>
-      </c>
-      <c r="R79" t="n">
-        <v>4</v>
-      </c>
-      <c r="S79" t="n">
-        <v>0</v>
-      </c>
-      <c r="T79" t="n">
-        <v>2</v>
       </c>
       <c r="U79" t="n">
         <v>0</v>
@@ -6978,17 +6978,17 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -6997,49 +6997,49 @@
         </is>
       </c>
       <c r="H80" t="n">
+        <v>6</v>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" t="n">
         <v>5</v>
       </c>
-      <c r="I80" t="n">
-        <v>6</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1</v>
-      </c>
-      <c r="K80" t="n">
-        <v>3</v>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0</v>
-      </c>
-      <c r="N80" t="n">
-        <v>1</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>24</v>
-      </c>
       <c r="Q80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R80" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -7060,17 +7060,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -7079,19 +7079,19 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M81" t="n">
         <v>0</v>
@@ -7103,13 +7103,13 @@
         <v>1</v>
       </c>
       <c r="P81" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="Q81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S81" t="n">
         <v>0</v>
@@ -7118,7 +7118,7 @@
         <v>0</v>
       </c>
       <c r="U81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V81" t="n">
         <v>2</v>
@@ -7142,56 +7142,56 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H82" t="n">
         <v>5</v>
       </c>
       <c r="I82" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J82" t="n">
         <v>1</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L82" t="n">
         <v>0</v>
       </c>
       <c r="M82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O82" t="n">
         <v>1</v>
       </c>
       <c r="P82" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S82" t="n">
         <v>0</v>
@@ -7200,10 +7200,10 @@
         <v>0</v>
       </c>
       <c r="U82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V82" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -7224,30 +7224,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>AK Okereke</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H83" t="n">
+        <v>5</v>
+      </c>
+      <c r="I83" t="n">
         <v>4</v>
       </c>
-      <c r="I83" t="n">
-        <v>2</v>
-      </c>
       <c r="J83" t="n">
         <v>3</v>
       </c>
@@ -7255,37 +7255,37 @@
         <v>0</v>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M83" t="n">
         <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P83" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
       </c>
       <c r="T83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U83" t="n">
         <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -7306,35 +7306,35 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J84" t="n">
         <v>1</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L84" t="n">
         <v>1</v>
@@ -7343,25 +7343,25 @@
         <v>0</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
       </c>
       <c r="P84" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="Q84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R84" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U84" t="n">
         <v>1</v>
@@ -7388,68 +7388,68 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I85" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K85" t="n">
         <v>1</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P85" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R85" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T85" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U85" t="n">
         <v>2</v>
       </c>
       <c r="V85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86">
@@ -7470,29 +7470,29 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 6:30 PM EST</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J86" t="n">
         <v>1</v>
@@ -7504,34 +7504,34 @@
         <v>0</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P86" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>0</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>3</v>
+      </c>
+      <c r="V86" t="n">
         <v>4</v>
-      </c>
-      <c r="Q86" t="n">
-        <v>1</v>
-      </c>
-      <c r="R86" t="n">
-        <v>1</v>
-      </c>
-      <c r="S86" t="n">
-        <v>0</v>
-      </c>
-      <c r="T86" t="n">
-        <v>0</v>
-      </c>
-      <c r="U86" t="n">
-        <v>0</v>
-      </c>
-      <c r="V86" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -7552,44 +7552,44 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K87" t="n">
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -7610,10 +7610,10 @@
         <v>0</v>
       </c>
       <c r="U87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -7634,12 +7634,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -7653,49 +7653,49 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J88" t="n">
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P88" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Q88" t="n">
         <v>2</v>
       </c>
       <c r="R88" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="S88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T88" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
@@ -7716,32 +7716,32 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I89" t="n">
         <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>0</v>
@@ -7753,13 +7753,13 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q89" t="n">
         <v>1</v>
@@ -7798,17 +7798,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>Annor Boateng</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -7817,10 +7817,10 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
         <v>2</v>
@@ -7832,22 +7832,22 @@
         <v>0</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O90" t="n">
         <v>0</v>
       </c>
       <c r="P90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S90" t="n">
         <v>0</v>
@@ -7880,53 +7880,53 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H91" t="n">
         <v>2</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P91" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R91" t="n">
         <v>1</v>
@@ -7935,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
@@ -7962,68 +7962,68 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H92" t="n">
         <v>2</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J92" t="n">
         <v>1</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N92" t="n">
         <v>2</v>
       </c>
       <c r="O92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P92" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R92" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S92" t="n">
         <v>0</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93">
@@ -8044,12 +8044,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -8059,47 +8059,47 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H93" t="n">
         <v>2</v>
       </c>
       <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" t="n">
+        <v>2</v>
+      </c>
+      <c r="P93" t="n">
         <v>4</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0</v>
-      </c>
-      <c r="N93" t="n">
-        <v>1</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>5</v>
-      </c>
       <c r="Q93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R93" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S93" t="n">
         <v>0</v>
       </c>
       <c r="T93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
@@ -8126,12 +8126,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -8145,13 +8145,13 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K94" t="n">
         <v>0</v>
@@ -8169,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="P94" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
@@ -8208,62 +8208,62 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Hayden Assemian</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K95" t="n">
         <v>0</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P95" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q95" t="n">
         <v>0</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S95" t="n">
         <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U95" t="n">
         <v>0</v>
@@ -8290,17 +8290,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Nicholas Randall</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -8309,7 +8309,7 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -8318,28 +8318,28 @@
         <v>1</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P96" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
       </c>
       <c r="R96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S96" t="n">
         <v>0</v>
@@ -8372,32 +8372,32 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -8415,13 +8415,13 @@
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="Q97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S97" t="n">
         <v>0</v>
@@ -8454,29 +8454,29 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Trent Burns</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J98" t="n">
         <v>1</v>
@@ -8485,31 +8485,31 @@
         <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O98" t="n">
         <v>0</v>
       </c>
       <c r="P98" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R98" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S98" t="n">
         <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U98" t="n">
         <v>0</v>
@@ -8536,7 +8536,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -8558,10 +8558,10 @@
         <v>1</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K99" t="n">
         <v>0</v>
@@ -8576,28 +8576,28 @@
         <v>0</v>
       </c>
       <c r="O99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P99" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q99" t="n">
         <v>0</v>
       </c>
       <c r="R99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S99" t="n">
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -8618,38 +8618,38 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Hayden Assemian</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -8661,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="P100" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
@@ -8679,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="V100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -8700,32 +8700,32 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Kai Rogers</t>
+          <t>Jayden Leverett</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -8743,7 +8743,7 @@
         <v>0</v>
       </c>
       <c r="P101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q101" t="n">
         <v>0</v>
@@ -8782,32 +8782,32 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Niko Bundalo</t>
+          <t>Nicholas Randall</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -8825,13 +8825,13 @@
         <v>0</v>
       </c>
       <c r="P102" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q102" t="n">
         <v>0</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S102" t="n">
         <v>0</v>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -8879,17 +8879,17 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>1:55 - 1st Half</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -8907,13 +8907,13 @@
         <v>1</v>
       </c>
       <c r="P103" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S103" t="n">
         <v>0</v>
@@ -8946,26 +8946,26 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Augusto Cassiá</t>
+          <t>Trent Burns</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8983,19 +8983,19 @@
         <v>0</v>
       </c>
       <c r="N104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
       </c>
       <c r="P104" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q104" t="n">
         <v>0</v>
       </c>
       <c r="R104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S104" t="n">
         <v>0</v>
@@ -9028,12 +9028,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -9047,49 +9047,49 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K105" t="n">
         <v>0</v>
       </c>
       <c r="L105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P105" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R105" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S105" t="n">
         <v>0</v>
       </c>
       <c r="T105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
@@ -9110,32 +9110,32 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>14:20 - 1st Half</t>
+          <t>15:55 - 1st Half</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K106" t="n">
         <v>0</v>
@@ -9147,13 +9147,13 @@
         <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q106" t="n">
         <v>0</v>
@@ -9192,67 +9192,723 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
+          <t>Kai Rogers</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>OU</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>TEX@OU</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>0</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>0</v>
+      </c>
+      <c r="S107" t="n">
+        <v>0</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Niko Bundalo</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>1:55 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
+        <v>0</v>
+      </c>
+      <c r="P108" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Zach Day</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>1:55 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1</v>
+      </c>
+      <c r="P109" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>1</v>
+      </c>
+      <c r="S109" t="n">
+        <v>0</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Augusto Cassiá</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>1:55 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
+      </c>
+      <c r="P110" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1</v>
+      </c>
+      <c r="S110" t="n">
+        <v>0</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Chandler Bing</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>VAN</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>1:55 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
+      </c>
+      <c r="P111" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
+      <c r="R111" t="n">
+        <v>0</v>
+      </c>
+      <c r="S111" t="n">
+        <v>0</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Justin Bailey</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>TA&amp;M@UGA</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+      <c r="O112" t="n">
+        <v>4</v>
+      </c>
+      <c r="P112" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>1</v>
+      </c>
+      <c r="R112" t="n">
+        <v>4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Koren Johnson</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>1:55 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>2</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1</v>
+      </c>
+      <c r="P113" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Malique Ewin</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>ARK</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>UK@ARK</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>15:55 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>0</v>
+      </c>
+      <c r="P114" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2</v>
+      </c>
+      <c r="S114" t="n">
+        <v>0</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>Travis Perry</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>MISS</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>MISS@VAN</t>
         </is>
       </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>14:20 - 1st Half</t>
-        </is>
-      </c>
-      <c r="H107" t="n">
-        <v>-1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0</v>
-      </c>
-      <c r="N107" t="n">
-        <v>1</v>
-      </c>
-      <c r="O107" t="n">
-        <v>0</v>
-      </c>
-      <c r="P107" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q107" t="n">
-        <v>0</v>
-      </c>
-      <c r="R107" t="n">
-        <v>2</v>
-      </c>
-      <c r="S107" t="n">
-        <v>0</v>
-      </c>
-      <c r="T107" t="n">
-        <v>2</v>
-      </c>
-      <c r="U107" t="n">
-        <v>0</v>
-      </c>
-      <c r="V107" t="n">
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>1:55 - 1st Half</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>-2</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
+      </c>
+      <c r="P115" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0</v>
+      </c>
+      <c r="T115" t="n">
+        <v>3</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9317,7 +9973,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -9343,10 +9999,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -9356,7 +10012,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
@@ -9369,7 +10025,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
@@ -9382,7 +10038,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V130"/>
+  <dimension ref="A1:V132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="18" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -664,68 +664,68 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Derrion Reid</t>
+          <t>Nate Ament</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" t="n">
+        <v>22</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>16</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="n">
+        <v>6</v>
+      </c>
+      <c r="U3" t="n">
+        <v>12</v>
+      </c>
+      <c r="V3" t="n">
         <v>15</v>
-      </c>
-      <c r="J3" t="n">
-        <v>5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>8</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2</v>
-      </c>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
-      <c r="V3" t="n">
-        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -746,12 +746,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tramon Mark</t>
+          <t>Derrion Reid</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -765,49 +765,49 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -828,38 +828,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Nate Ament</t>
+          <t>Tramon Mark</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 8:40 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="Q5" t="n">
         <v>2</v>
@@ -880,7 +880,7 @@
         <v>6</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>3</v>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1663,53 +1663,53 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 8:40 PM EST</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S15" t="n">
         <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1745,41 +1745,41 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 8:40 PM EST</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2155,7 +2155,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2222,68 +2222,68 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mark Mitchell</t>
+          <t>Keyshawn Hall</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H22" t="n">
         <v>17</v>
       </c>
       <c r="I22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2</v>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>35</v>
+      </c>
+      <c r="Q22" t="n">
         <v>7</v>
       </c>
-      <c r="K22" t="n">
-        <v>4</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>36</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
+        <v>17</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>9</v>
+      </c>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
         <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>14</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1</v>
-      </c>
-      <c r="T22" t="n">
-        <v>4</v>
-      </c>
-      <c r="U22" t="n">
-        <v>8</v>
-      </c>
-      <c r="V22" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="23">
@@ -2304,68 +2304,68 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Keyshawn Hall</t>
+          <t>Mark Mitchell</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 8:40 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I23" t="n">
+        <v>19</v>
+      </c>
+      <c r="J23" t="n">
+        <v>7</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q23" t="n">
         <v>5</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
       <c r="R23" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U23" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V23" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24">
@@ -2647,7 +2647,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -3124,68 +3124,68 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Anthony Robinson II</t>
+          <t>Jaylen Carey</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="I33" t="n">
+        <v>13</v>
+      </c>
+      <c r="J33" t="n">
+        <v>8</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
         <v>9</v>
       </c>
-      <c r="J33" t="n">
-        <v>2</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>4</v>
-      </c>
-      <c r="P33" t="n">
-        <v>23</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>7</v>
-      </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -3206,68 +3206,68 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Jaylen Carey</t>
+          <t>Anthony Robinson II</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 8:40 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
+        <v>9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>4</v>
+      </c>
+      <c r="P34" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2</v>
+      </c>
+      <c r="R34" t="n">
+        <v>7</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>4</v>
+      </c>
+      <c r="U34" t="n">
         <v>5</v>
       </c>
-      <c r="J34" t="n">
-        <v>2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>3</v>
-      </c>
       <c r="V34" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -3713,7 +3713,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -3795,17 +3795,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 8:40 PM EST</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41" t="n">
         <v>1</v>
@@ -3817,19 +3817,19 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P41" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Q41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3841,7 +3841,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -4205,23 +4205,23 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 8:40 PM EST</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -4230,28 +4230,28 @@
         <v>2</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P46" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T46" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47">
@@ -4369,7 +4369,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -5420,38 +5420,38 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Shawn Jones Jr.</t>
+          <t>Tahaad Pettiford</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H61" t="n">
+        <v>10</v>
+      </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>3</v>
+      </c>
+      <c r="K61" t="n">
         <v>7</v>
       </c>
-      <c r="I61" t="n">
-        <v>8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
         <v>0</v>
@@ -5460,28 +5460,28 @@
         <v>2</v>
       </c>
       <c r="O61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P61" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R61" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="S61" t="n">
         <v>2</v>
       </c>
       <c r="T61" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="U61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -5502,38 +5502,38 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Jalen Washington</t>
+          <t>Elyjah Freeman</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
@@ -5542,28 +5542,28 @@
         <v>0</v>
       </c>
       <c r="O62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P62" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R62" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -5584,32 +5584,32 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Elyjah Freeman</t>
+          <t>Shawn Jones Jr.</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 8:40 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K63" t="n">
         <v>0</v>
@@ -5621,31 +5621,31 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O63" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P63" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="Q63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64">
@@ -5666,32 +5666,32 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Tahaad Pettiford</t>
+          <t>Jalen Washington</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 8:40 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K64" t="n">
         <v>0</v>
@@ -5703,31 +5703,31 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P64" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="Q64" t="n">
         <v>1</v>
       </c>
       <c r="R64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S64" t="n">
         <v>0</v>
       </c>
       <c r="T64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65">
@@ -5763,7 +5763,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -6076,68 +6076,68 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>T.O. Barrett</t>
+          <t>DeWayne Brown II</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I69" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="J69" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K69" t="n">
         <v>4</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P69" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="Q69" t="n">
         <v>3</v>
       </c>
       <c r="R69" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U69" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="V69" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70">
@@ -6158,7 +6158,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Trent Pierce</t>
+          <t>T.O. Barrett</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -6177,49 +6177,49 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I70" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J70" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K70" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O70" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P70" t="n">
         <v>30</v>
       </c>
       <c r="Q70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R70" t="n">
+        <v>11</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2</v>
+      </c>
+      <c r="T70" t="n">
+        <v>4</v>
+      </c>
+      <c r="U70" t="n">
         <v>8</v>
       </c>
-      <c r="S70" t="n">
-        <v>3</v>
-      </c>
-      <c r="T70" t="n">
-        <v>6</v>
-      </c>
-      <c r="U70" t="n">
-        <v>0</v>
-      </c>
       <c r="V70" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -6240,17 +6240,17 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Ali Dibba</t>
+          <t>Trent Pierce</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -6259,43 +6259,43 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I71" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
       <c r="N71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O71" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P71" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>8</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="n">
         <v>6</v>
-      </c>
-      <c r="R71" t="n">
-        <v>10</v>
-      </c>
-      <c r="S71" t="n">
-        <v>3</v>
-      </c>
-      <c r="T71" t="n">
-        <v>4</v>
       </c>
       <c r="U71" t="n">
         <v>0</v>
@@ -6322,68 +6322,68 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Chendall Weaver</t>
+          <t>Bishop Boswell</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I72" t="n">
+        <v>7</v>
+      </c>
+      <c r="J72" t="n">
         <v>8</v>
       </c>
-      <c r="J72" t="n">
-        <v>6</v>
-      </c>
       <c r="K72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O72" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P72" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q72" t="n">
         <v>3</v>
       </c>
       <c r="R72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S72" t="n">
         <v>1</v>
       </c>
       <c r="T72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -6404,41 +6404,41 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Elijah Strong</t>
+          <t>Ali Dibba</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H73" t="n">
         <v>14</v>
       </c>
       <c r="I73" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N73" t="n">
         <v>1</v>
@@ -6447,25 +6447,25 @@
         <v>2</v>
       </c>
       <c r="P73" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q73" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R73" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -6486,17 +6486,17 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Mike James</t>
+          <t>Chendall Weaver</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -6508,46 +6508,46 @@
         <v>14</v>
       </c>
       <c r="I74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J74" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K74" t="n">
         <v>2</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O74" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P74" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Q74" t="n">
         <v>3</v>
       </c>
       <c r="R74" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="S74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T74" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
@@ -6568,38 +6568,38 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Camden Heide</t>
+          <t>Elijah Strong</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I75" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M75" t="n">
         <v>0</v>
@@ -6608,28 +6608,28 @@
         <v>1</v>
       </c>
       <c r="O75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P75" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q75" t="n">
         <v>5</v>
       </c>
       <c r="R75" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
@@ -6650,35 +6650,35 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Eli Ellis</t>
+          <t>Mike James</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I76" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J76" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L76" t="n">
         <v>0</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="O76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P76" t="n">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="Q76" t="n">
         <v>3</v>
@@ -6705,13 +6705,13 @@
         <v>3</v>
       </c>
       <c r="T76" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="U76" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V76" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -6732,7 +6732,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Simeon Wilcher</t>
+          <t>Camden Heide</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -6754,37 +6754,37 @@
         <v>13</v>
       </c>
       <c r="I77" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O77" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P77" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R77" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T77" t="n">
         <v>4</v>
@@ -6814,65 +6814,65 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Malique Ewin</t>
+          <t>Eli Ellis</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I78" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J78" t="n">
+        <v>3</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>2</v>
+      </c>
+      <c r="P78" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>9</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="n">
         <v>5</v>
       </c>
-      <c r="K78" t="n">
-        <v>2</v>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>3</v>
-      </c>
-      <c r="P78" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>4</v>
-      </c>
-      <c r="R78" t="n">
-        <v>8</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
-        <v>0</v>
-      </c>
       <c r="U78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V78" t="n">
         <v>6</v>
@@ -6896,17 +6896,17 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Pop Isaacs</t>
+          <t>Simeon Wilcher</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -6915,49 +6915,49 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J79" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P79" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Q79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R79" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T79" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -6978,56 +6978,56 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Robert Miller III</t>
+          <t>Filip Jović</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H80" t="n">
         <v>12</v>
       </c>
       <c r="I80" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J80" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M80" t="n">
         <v>0</v>
       </c>
       <c r="N80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P80" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Q80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S80" t="n">
         <v>0</v>
@@ -7036,10 +7036,10 @@
         <v>0</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V80" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">
@@ -7060,17 +7060,17 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Shawn Phillips Jr.</t>
+          <t>Malique Ewin</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -7082,46 +7082,46 @@
         <v>12</v>
       </c>
       <c r="I81" t="n">
+        <v>11</v>
+      </c>
+      <c r="J81" t="n">
+        <v>5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>3</v>
+      </c>
+      <c r="P81" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>8</v>
+      </c>
+      <c r="S81" t="n">
+        <v>0</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
         <v>6</v>
-      </c>
-      <c r="J81" t="n">
-        <v>6</v>
-      </c>
-      <c r="K81" t="n">
-        <v>1</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="n">
-        <v>1</v>
-      </c>
-      <c r="O81" t="n">
-        <v>2</v>
-      </c>
-      <c r="P81" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q81" t="n">
-        <v>3</v>
-      </c>
-      <c r="R81" t="n">
-        <v>4</v>
-      </c>
-      <c r="S81" t="n">
-        <v>0</v>
-      </c>
-      <c r="T81" t="n">
-        <v>0</v>
-      </c>
-      <c r="U81" t="n">
-        <v>0</v>
-      </c>
-      <c r="V81" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -7142,68 +7142,68 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Trent Noah</t>
+          <t>Pop Isaacs</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H82" t="n">
         <v>12</v>
       </c>
       <c r="I82" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J82" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M82" t="n">
         <v>0</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P82" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R82" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="S82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U82" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="V82" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
@@ -7224,56 +7224,56 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Jamarion Davis-Fleming</t>
+          <t>Robert Miller III</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J83" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
       <c r="M83" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O83" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P83" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="Q83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S83" t="n">
         <v>0</v>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
       <c r="V83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -7306,17 +7306,17 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Jacari Lane</t>
+          <t>Shawn Phillips Jr.</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -7325,49 +7325,49 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I84" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P84" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="Q84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R84" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="S84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="V84" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -7388,17 +7388,17 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Kanon Catchings</t>
+          <t>Trent Noah</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -7407,13 +7407,13 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I85" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J85" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K85" t="n">
         <v>0</v>
@@ -7425,31 +7425,31 @@
         <v>0</v>
       </c>
       <c r="N85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P85" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="Q85" t="n">
+        <v>1</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>1</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1</v>
+      </c>
+      <c r="U85" t="n">
         <v>6</v>
       </c>
-      <c r="R85" t="n">
-        <v>14</v>
-      </c>
-      <c r="S85" t="n">
-        <v>2</v>
-      </c>
-      <c r="T85" t="n">
-        <v>6</v>
-      </c>
-      <c r="U85" t="n">
-        <v>0</v>
-      </c>
       <c r="V85" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
@@ -7470,62 +7470,62 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Dayton Forsythe</t>
+          <t>Amari Evans</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J86" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M86" t="n">
         <v>0</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P86" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="Q86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R86" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="S86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T86" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U86" t="n">
         <v>2</v>
@@ -7552,7 +7552,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Achor Achor</t>
+          <t>Jamarion Davis-Fleming</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -7571,37 +7571,37 @@
         </is>
       </c>
       <c r="H87" t="n">
+        <v>11</v>
+      </c>
+      <c r="I87" t="n">
+        <v>2</v>
+      </c>
+      <c r="J87" t="n">
         <v>8</v>
       </c>
-      <c r="I87" t="n">
-        <v>6</v>
-      </c>
-      <c r="J87" t="n">
-        <v>4</v>
-      </c>
       <c r="K87" t="n">
         <v>0</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
       </c>
       <c r="O87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P87" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="Q87" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R87" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S87" t="n">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>0</v>
       </c>
       <c r="V87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
@@ -7634,68 +7634,68 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Andrija Jelavic</t>
+          <t>Jacari Lane</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I88" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J88" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
       </c>
       <c r="N88" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P88" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Q88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R88" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S88" t="n">
         <v>1</v>
       </c>
       <c r="T88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89">
@@ -7716,35 +7716,35 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Jalen Reece</t>
+          <t>Kanon Catchings</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K89" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>0</v>
@@ -7753,25 +7753,25 @@
         <v>0</v>
       </c>
       <c r="N89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
       </c>
       <c r="P89" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>6</v>
+      </c>
+      <c r="R89" t="n">
         <v>14</v>
       </c>
-      <c r="Q89" t="n">
-        <v>1</v>
-      </c>
-      <c r="R89" t="n">
-        <v>1</v>
-      </c>
       <c r="S89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T89" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="U89" t="n">
         <v>0</v>
@@ -7798,17 +7798,17 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Jordan Ross</t>
+          <t>Dayton Forsythe</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -7817,19 +7817,19 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -7838,25 +7838,25 @@
         <v>0</v>
       </c>
       <c r="O90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P90" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Q90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90" t="n">
         <v>1</v>
       </c>
       <c r="U90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V90" t="n">
         <v>2</v>
@@ -7880,7 +7880,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>King Grace</t>
+          <t>Achor Achor</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -7899,10 +7899,10 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I91" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J91" t="n">
         <v>4</v>
@@ -7917,25 +7917,25 @@
         <v>0</v>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
+        <v>4</v>
+      </c>
+      <c r="P91" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="n">
         <v>5</v>
       </c>
-      <c r="P91" t="n">
-        <v>19</v>
-      </c>
-      <c r="Q91" t="n">
-        <v>3</v>
-      </c>
-      <c r="R91" t="n">
-        <v>6</v>
-      </c>
       <c r="S91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T91" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U91" t="n">
         <v>0</v>
@@ -7962,17 +7962,17 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Corey Chest</t>
+          <t>Andrija Jelavic</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -7981,19 +7981,19 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J92" t="n">
         <v>2</v>
       </c>
       <c r="K92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -8002,28 +8002,28 @@
         <v>0</v>
       </c>
       <c r="O92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P92" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -8044,50 +8044,50 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Jamie Vinson</t>
+          <t>Jalen Reece</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M93" t="n">
         <v>0</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P93" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="Q93" t="n">
         <v>1</v>
@@ -8096,10 +8096,10 @@
         <v>1</v>
       </c>
       <c r="S93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U93" t="n">
         <v>0</v>
@@ -8126,56 +8126,56 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Kezza Giffa</t>
+          <t>Sebastian Williams-Adams</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I94" t="n">
+        <v>9</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" t="n">
+        <v>4</v>
+      </c>
+      <c r="P94" t="n">
+        <v>27</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
         <v>5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>2</v>
-      </c>
-      <c r="K94" t="n">
-        <v>1</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="n">
-        <v>1</v>
-      </c>
-      <c r="O94" t="n">
-        <v>1</v>
-      </c>
-      <c r="P94" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q94" t="n">
-        <v>1</v>
-      </c>
-      <c r="R94" t="n">
-        <v>2</v>
       </c>
       <c r="S94" t="n">
         <v>0</v>
@@ -8208,17 +8208,17 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Patton Pinkins</t>
+          <t>Jordan Ross</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -8227,19 +8227,19 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I95" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -8248,25 +8248,25 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P95" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="Q95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R95" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V95" t="n">
         <v>2</v>
@@ -8290,7 +8290,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Sergej Macura</t>
+          <t>King Grace</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -8309,49 +8309,49 @@
         </is>
       </c>
       <c r="H96" t="n">
+        <v>7</v>
+      </c>
+      <c r="I96" t="n">
+        <v>7</v>
+      </c>
+      <c r="J96" t="n">
+        <v>4</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="n">
+        <v>5</v>
+      </c>
+      <c r="P96" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
         <v>6</v>
       </c>
-      <c r="I96" t="n">
-        <v>3</v>
-      </c>
-      <c r="J96" t="n">
-        <v>4</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="n">
-        <v>1</v>
-      </c>
-      <c r="P96" t="n">
-        <v>21</v>
-      </c>
-      <c r="Q96" t="n">
-        <v>1</v>
-      </c>
-      <c r="R96" t="n">
-        <v>1</v>
-      </c>
       <c r="S96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T96" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -8372,12 +8372,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Tyler Harris</t>
+          <t>Corey Chest</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -8394,10 +8394,10 @@
         <v>6</v>
       </c>
       <c r="I97" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K97" t="n">
         <v>1</v>
@@ -8409,31 +8409,31 @@
         <v>0</v>
       </c>
       <c r="N97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
       </c>
       <c r="P97" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Q97" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R97" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T97" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="U97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98">
@@ -8454,51 +8454,51 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Bishop Boswell</t>
+          <t>Jamie Vinson</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 8:40 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H98" t="n">
+        <v>6</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1</v>
+      </c>
+      <c r="P98" t="n">
         <v>5</v>
       </c>
-      <c r="I98" t="n">
-        <v>3</v>
-      </c>
-      <c r="J98" t="n">
-        <v>2</v>
-      </c>
-      <c r="K98" t="n">
-        <v>1</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0</v>
-      </c>
-      <c r="N98" t="n">
-        <v>1</v>
-      </c>
-      <c r="O98" t="n">
-        <v>1</v>
-      </c>
-      <c r="P98" t="n">
-        <v>9</v>
-      </c>
       <c r="Q98" t="n">
         <v>1</v>
       </c>
@@ -8506,10 +8506,10 @@
         <v>1</v>
       </c>
       <c r="S98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U98" t="n">
         <v>0</v>
@@ -8536,68 +8536,68 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Brandon Garrison</t>
+          <t>Kezza Giffa</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H99" t="n">
+        <v>6</v>
+      </c>
+      <c r="I99" t="n">
         <v>5</v>
       </c>
-      <c r="I99" t="n">
-        <v>4</v>
-      </c>
       <c r="J99" t="n">
         <v>2</v>
       </c>
       <c r="K99" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L99" t="n">
         <v>0</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99" t="n">
         <v>1</v>
       </c>
       <c r="O99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P99" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S99" t="n">
         <v>0</v>
       </c>
       <c r="T99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V99" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
@@ -8618,38 +8618,38 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>DeWayne Brown II</t>
+          <t>Patton Pinkins</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 8:40 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
@@ -8658,28 +8658,28 @@
         <v>0</v>
       </c>
       <c r="O100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P100" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="Q100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R100" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -8700,32 +8700,32 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Grant Polk</t>
+          <t>Sergej Macura</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K101" t="n">
         <v>0</v>
@@ -8743,25 +8743,25 @@
         <v>1</v>
       </c>
       <c r="P101" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R101" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S101" t="n">
         <v>0</v>
       </c>
       <c r="T101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
@@ -8782,17 +8782,17 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Ja'Borri McGhee</t>
+          <t>Tyler Harris</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MSST</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -8801,49 +8801,49 @@
         </is>
       </c>
       <c r="H102" t="n">
+        <v>6</v>
+      </c>
+      <c r="I102" t="n">
+        <v>7</v>
+      </c>
+      <c r="J102" t="n">
+        <v>4</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3</v>
+      </c>
+      <c r="O102" t="n">
+        <v>0</v>
+      </c>
+      <c r="P102" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>7</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="n">
         <v>5</v>
       </c>
-      <c r="I102" t="n">
-        <v>6</v>
-      </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
-      <c r="K102" t="n">
-        <v>3</v>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0</v>
-      </c>
-      <c r="N102" t="n">
-        <v>1</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0</v>
-      </c>
-      <c r="P102" t="n">
-        <v>24</v>
-      </c>
-      <c r="Q102" t="n">
-        <v>2</v>
-      </c>
-      <c r="R102" t="n">
-        <v>6</v>
-      </c>
-      <c r="S102" t="n">
-        <v>1</v>
-      </c>
-      <c r="T102" t="n">
-        <v>3</v>
-      </c>
       <c r="U102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -8864,17 +8864,17 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Josh Holloway</t>
+          <t>Brandon Garrison</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -8886,46 +8886,46 @@
         <v>5</v>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P103" t="n">
         <v>13</v>
       </c>
       <c r="Q103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R103" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S103" t="n">
         <v>0</v>
       </c>
       <c r="T103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -8946,32 +8946,32 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Amari Evans</t>
+          <t>Grant Polk</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>TENN</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 8:40 PM EST</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K104" t="n">
         <v>0</v>
@@ -8986,22 +8986,22 @@
         <v>0</v>
       </c>
       <c r="O104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P104" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Q104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R104" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S104" t="n">
         <v>0</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U104" t="n">
         <v>0</v>
@@ -9028,17 +9028,17 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Chandler Bing</t>
+          <t>Ja'Borri McGhee</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>VAN</t>
+          <t>MSST</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -9047,16 +9047,16 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I105" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L105" t="n">
         <v>1</v>
@@ -9065,28 +9065,28 @@
         <v>0</v>
       </c>
       <c r="N105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P105" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R105" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S105" t="n">
         <v>1</v>
       </c>
       <c r="T105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V105" t="n">
         <v>2</v>
@@ -9110,68 +9110,68 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>PJ Carter</t>
+          <t>Josh Holloway</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>LSU</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I106" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K106" t="n">
         <v>1</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P106" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R106" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="S106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T106" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U106" t="n">
         <v>2</v>
       </c>
       <c r="V106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107">
@@ -9192,17 +9192,17 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Annor Boateng</t>
+          <t>Chandler Bing</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MIZ</t>
+          <t>VAN</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>MSST@MIZ</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -9211,31 +9211,31 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
         <v>2</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N107" t="n">
         <v>2</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P107" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="Q107" t="n">
         <v>1</v>
@@ -9244,16 +9244,16 @@
         <v>1</v>
       </c>
       <c r="S107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U107" t="n">
         <v>0</v>
       </c>
       <c r="V107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108">
@@ -9274,32 +9274,32 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>D.J. Wagner</t>
+          <t>PJ Carter</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ARK</t>
+          <t>LSU</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I108" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K108" t="n">
         <v>1</v>
@@ -9308,34 +9308,34 @@
         <v>0</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P108" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q108" t="n">
         <v>2</v>
       </c>
       <c r="R108" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T108" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="U108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V108" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
@@ -9356,17 +9356,17 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Travis Perry</t>
+          <t>Annor Boateng</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>MIZ</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>MSST@MIZ</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -9378,40 +9378,40 @@
         <v>3</v>
       </c>
       <c r="I109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K109" t="n">
         <v>0</v>
       </c>
       <c r="L109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P109" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q109" t="n">
         <v>1</v>
       </c>
       <c r="R109" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T109" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U109" t="n">
         <v>0</v>
@@ -9438,56 +9438,56 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>EJ Walker</t>
+          <t>D.J. Wagner</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SC</t>
+          <t>ARK</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>LSU@SC</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Final/OT</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
       </c>
       <c r="N110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P110" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q110" t="n">
         <v>2</v>
       </c>
       <c r="R110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S110" t="n">
         <v>0</v>
@@ -9496,10 +9496,10 @@
         <v>1</v>
       </c>
       <c r="U110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Eduardo Klafke</t>
+          <t>Travis Perry</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -9539,43 +9539,43 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I111" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J111" t="n">
         <v>3</v>
       </c>
       <c r="K111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M111" t="n">
         <v>0</v>
       </c>
       <c r="N111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P111" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q111" t="n">
         <v>1</v>
       </c>
       <c r="R111" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T111" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
@@ -9602,68 +9602,68 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Justin Abson</t>
+          <t>EJ Walker</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>LSU@SC</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>Final/OT</t>
         </is>
       </c>
       <c r="H112" t="n">
         <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K112" t="n">
         <v>0</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P112" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>2</v>
+      </c>
+      <c r="R112" t="n">
         <v>5</v>
       </c>
-      <c r="Q112" t="n">
-        <v>0</v>
-      </c>
-      <c r="R112" t="n">
-        <v>0</v>
-      </c>
       <c r="S112" t="n">
         <v>0</v>
       </c>
       <c r="T112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113">
@@ -9684,17 +9684,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Kareem Stagg</t>
+          <t>Eduardo Klafke</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -9706,19 +9706,19 @@
         <v>2</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J113" t="n">
         <v>3</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N113" t="n">
         <v>2</v>
@@ -9727,13 +9727,13 @@
         <v>2</v>
       </c>
       <c r="P113" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R113" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S113" t="n">
         <v>0</v>
@@ -9766,17 +9766,17 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Koren Johnson</t>
+          <t>Justin Abson</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -9791,25 +9791,25 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M114" t="n">
         <v>0</v>
       </c>
       <c r="N114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O114" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P114" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="Q114" t="n">
         <v>0</v>
@@ -9848,17 +9848,17 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Lassina Traore</t>
+          <t>Kareem Stagg</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>TEX</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -9873,10 +9873,10 @@
         <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>1</v>
@@ -9888,22 +9888,22 @@
         <v>2</v>
       </c>
       <c r="O115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P115" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q115" t="n">
         <v>0</v>
       </c>
       <c r="R115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S115" t="n">
         <v>0</v>
       </c>
       <c r="T115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U115" t="n">
         <v>0</v>
@@ -9930,56 +9930,56 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Sebastian Williams-Adams</t>
+          <t>Koren Johnson</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>MISS</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>MISS@VAN</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 8:40 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H116" t="n">
         <v>2</v>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M116" t="n">
         <v>0</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O116" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P116" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S116" t="n">
         <v>0</v>
@@ -10012,17 +10012,17 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Federiko Federiko</t>
+          <t>Lassina Traore</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TEX</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -10031,7 +10031,7 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -10040,22 +10040,22 @@
         <v>1</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P117" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="Q117" t="n">
         <v>0</v>
@@ -10094,38 +10094,38 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Filip Jović</t>
+          <t>Federiko Federiko</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 8:40 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H118" t="n">
         <v>1</v>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K118" t="n">
         <v>0</v>
       </c>
       <c r="L118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M118" t="n">
         <v>0</v>
@@ -10134,10 +10134,10 @@
         <v>0</v>
       </c>
       <c r="O118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P118" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q118" t="n">
         <v>0</v>
@@ -10152,10 +10152,10 @@
         <v>0</v>
       </c>
       <c r="U118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -10504,35 +10504,35 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Zach Clemence</t>
+          <t>Troy Henderson</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>TA&amp;M</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H123" t="n">
         <v>1</v>
       </c>
       <c r="I123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
@@ -10544,28 +10544,28 @@
         <v>0</v>
       </c>
       <c r="O123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P123" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="Q123" t="n">
         <v>0</v>
       </c>
       <c r="R123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S123" t="n">
         <v>0</v>
       </c>
       <c r="T123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -10586,32 +10586,32 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Blake Muschalek</t>
+          <t>Zach Clemence</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>AUB</t>
+          <t>TA&amp;M</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>AUB@TENN</t>
+          <t>TA&amp;M@UGA</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Sat, January 31st at 8:40 PM EST</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K124" t="n">
         <v>0</v>
@@ -10629,25 +10629,25 @@
         <v>1</v>
       </c>
       <c r="P124" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Q124" t="n">
         <v>0</v>
       </c>
       <c r="R124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S124" t="n">
         <v>0</v>
       </c>
       <c r="T124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125">
@@ -10668,29 +10668,29 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Jasper Johnson</t>
+          <t>Amaree Abram</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>TENN</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>UK@ARK</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>11:59 - 2nd Half</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
         <v>0</v>
@@ -10705,25 +10705,25 @@
         <v>0</v>
       </c>
       <c r="N125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S125" t="n">
         <v>0</v>
       </c>
       <c r="T125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U125" t="n">
         <v>0</v>
@@ -10750,22 +10750,22 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Kai Rogers</t>
+          <t>Blake Muschalek</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>OU</t>
+          <t>AUB</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>TEX@OU</t>
+          <t>AUB@TENN</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Final</t>
+          <t>12:00 - 2nd Half</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -10790,10 +10790,10 @@
         <v>0</v>
       </c>
       <c r="O126" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P126" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q126" t="n">
         <v>0</v>
@@ -10832,17 +10832,17 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Niko Bundalo</t>
+          <t>Jasper Johnson</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MISS</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>MISS@VAN</t>
+          <t>UK@ARK</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -10854,7 +10854,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
         <v>0</v>
@@ -10869,25 +10869,25 @@
         <v>0</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S127" t="n">
         <v>0</v>
       </c>
       <c r="T127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U127" t="n">
         <v>0</v>
@@ -10914,17 +10914,17 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Justin Bailey</t>
+          <t>Kai Rogers</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>OU</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>TA&amp;M@UGA</t>
+          <t>TEX@OU</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -10933,10 +10933,10 @@
         </is>
       </c>
       <c r="H128" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
         <v>0</v>
@@ -10945,31 +10945,31 @@
         <v>0</v>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M128" t="n">
         <v>0</v>
       </c>
       <c r="N128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O128" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P128" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R128" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S128" t="n">
         <v>0</v>
       </c>
       <c r="T128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U128" t="n">
         <v>0</v>
@@ -10996,7 +10996,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Zach Day</t>
+          <t>Niko Bundalo</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -11015,13 +11015,13 @@
         </is>
       </c>
       <c r="H129" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -11036,22 +11036,22 @@
         <v>0</v>
       </c>
       <c r="O129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P129" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q129" t="n">
         <v>0</v>
       </c>
       <c r="R129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S129" t="n">
         <v>0</v>
       </c>
       <c r="T129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U129" t="n">
         <v>0</v>
@@ -11078,67 +11078,231 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
+          <t>Justin Bailey</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>UGA</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>TA&amp;M@UGA</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+      <c r="O130" t="n">
+        <v>4</v>
+      </c>
+      <c r="P130" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>1</v>
+      </c>
+      <c r="R130" t="n">
+        <v>4</v>
+      </c>
+      <c r="S130" t="n">
+        <v>0</v>
+      </c>
+      <c r="T130" t="n">
+        <v>1</v>
+      </c>
+      <c r="U130" t="n">
+        <v>0</v>
+      </c>
+      <c r="V130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Zach Day</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>MISS</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>MISS@VAN</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Final</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>1</v>
+      </c>
+      <c r="P131" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>2</v>
+      </c>
+      <c r="S131" t="n">
+        <v>0</v>
+      </c>
+      <c r="T131" t="n">
+        <v>1</v>
+      </c>
+      <c r="U131" t="n">
+        <v>0</v>
+      </c>
+      <c r="V131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2026-01-31</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Undrafted</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>Augusto Cassiá</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>MISS</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>MISS@VAN</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>Final</t>
         </is>
       </c>
-      <c r="H130" t="n">
+      <c r="H132" t="n">
         <v>-2</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>1</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0</v>
-      </c>
-      <c r="M130" t="n">
-        <v>0</v>
-      </c>
-      <c r="N130" t="n">
-        <v>1</v>
-      </c>
-      <c r="O130" t="n">
-        <v>0</v>
-      </c>
-      <c r="P130" t="n">
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>1</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
         <v>10</v>
       </c>
-      <c r="Q130" t="n">
-        <v>0</v>
-      </c>
-      <c r="R130" t="n">
-        <v>2</v>
-      </c>
-      <c r="S130" t="n">
-        <v>0</v>
-      </c>
-      <c r="T130" t="n">
-        <v>0</v>
-      </c>
-      <c r="U130" t="n">
-        <v>0</v>
-      </c>
-      <c r="V130" t="n">
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2</v>
+      </c>
+      <c r="S132" t="n">
+        <v>0</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0</v>
+      </c>
+      <c r="U132" t="n">
+        <v>0</v>
+      </c>
+      <c r="V132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11186,11 +11350,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Three Dawg Nite</t>
+          <t>The Backslashers</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
@@ -11199,11 +11363,11 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>The Oddities</t>
+          <t>Three Dawg Nite</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
@@ -11212,11 +11376,11 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>The Backslashers</t>
+          <t>The Oddities</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
@@ -11225,37 +11389,37 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bend Rimmers</t>
+          <t>Boozers Losers</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Boozers Losers</t>
+          <t>Bend Rimmers</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>G-Flop</t>
+          <t>Hilton Heads</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
@@ -11264,11 +11428,11 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hilton Heads</t>
+          <t>G-Flop</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
         <v>3</v>

--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-31.xlsx
@@ -434,7 +434,7 @@
     <col width="26" customWidth="1" min="4" max="4"/>
     <col width="6" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="18" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="7" max="7"/>
     <col width="6" customWidth="1" min="8" max="8"/>
     <col width="5" customWidth="1" min="9" max="9"/>
     <col width="5" customWidth="1" min="10" max="10"/>
@@ -679,7 +679,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -1663,7 +1663,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1745,7 +1745,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -3139,7 +3139,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3795,7 +3795,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -4205,7 +4205,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -5517,7 +5517,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -6091,7 +6091,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -6337,7 +6337,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -8141,7 +8141,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -10519,7 +10519,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -10683,7 +10683,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>12:00 - 2nd Half</t>
+          <t>Final</t>
         </is>
       </c>
       <c r="H126" t="n">
